--- a/capiq_data/in_process_data/IQ282225.xlsx
+++ b/capiq_data/in_process_data/IQ282225.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B9FBF-DE97-45D3-A277-FF411B1A92E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D95F63-1939-41D2-991A-08AA3F34047A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ca81e82f-e611-4972-9c40-60621f8ade03"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c59f747d-bba1-417a-966a-149a74733305"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>185.49199999999999</v>
+        <v>77.850999999999999</v>
       </c>
       <c r="D2">
-        <v>766.327</v>
+        <v>500.83300000000003</v>
       </c>
       <c r="E2">
-        <v>531.45299999999997</v>
+        <v>604.92100000000005</v>
       </c>
       <c r="F2">
-        <v>454.92899999999997</v>
+        <v>284.93299999999999</v>
       </c>
       <c r="G2">
-        <v>3126.3110000000001</v>
+        <v>1585.1790000000001</v>
       </c>
       <c r="H2">
-        <v>4168.4610000000002</v>
+        <v>2344.3989999999999</v>
       </c>
       <c r="I2">
-        <v>123.166</v>
+        <v>61.185000000000002</v>
       </c>
       <c r="J2">
-        <v>746.01800000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>793.93700000000001</v>
+        <v>553.51700000000005</v>
       </c>
       <c r="O2">
-        <v>1702.2270000000001</v>
+        <v>553.51700000000005</v>
       </c>
       <c r="P2">
-        <v>746.01800000000003</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>57.72</v>
+        <v>-75.353999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2466.2339999999999</v>
+        <v>1790.8820000000001</v>
       </c>
       <c r="U2">
-        <v>596.10400000000004</v>
+        <v>301.99900000000002</v>
       </c>
       <c r="V2">
-        <v>193.92500000000001</v>
+        <v>21.616</v>
       </c>
       <c r="W2">
-        <v>-41.808999999999997</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-80.790000000000006</v>
+        <v>-108.14100000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-64.176000000000002</v>
+        <v>44.484999999999999</v>
       </c>
       <c r="AA2">
-        <v>185.49199999999999</v>
+        <v>77.850999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>209.78299999999999</v>
+        <v>136.33600000000001</v>
       </c>
       <c r="D3">
-        <v>834.05899999999997</v>
+        <v>617.56700000000001</v>
       </c>
       <c r="E3">
-        <v>566.06899999999996</v>
+        <v>538.173</v>
       </c>
       <c r="F3">
-        <v>506.363</v>
+        <v>348.49299999999999</v>
       </c>
       <c r="G3">
-        <v>3430.8910000000001</v>
+        <v>1665.085</v>
       </c>
       <c r="H3">
-        <v>4449.3429999999998</v>
+        <v>2440.511</v>
       </c>
       <c r="I3">
-        <v>142.126</v>
+        <v>58.738999999999997</v>
       </c>
       <c r="J3">
-        <v>746.154</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>856.73699999999997</v>
+        <v>552.25300000000004</v>
       </c>
       <c r="O3">
-        <v>1776.326</v>
+        <v>552.25300000000004</v>
       </c>
       <c r="P3">
-        <v>746.154</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>42.654000000000003</v>
+        <v>135.381</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2673.0169999999998</v>
+        <v>1888.258</v>
       </c>
       <c r="U3">
-        <v>638.75800000000004</v>
+        <v>437.38</v>
       </c>
       <c r="V3">
-        <v>243.911</v>
+        <v>126.929</v>
       </c>
       <c r="W3">
-        <v>-41.942</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-26.538</v>
+        <v>5.5289999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-163.42699999999999</v>
+        <v>19.684999999999999</v>
       </c>
       <c r="AA3">
-        <v>209.78299999999999</v>
+        <v>136.33600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>245.017</v>
+        <v>129.95400000000001</v>
       </c>
       <c r="D4">
-        <v>892.43899999999996</v>
+        <v>602.64200000000005</v>
       </c>
       <c r="E4">
-        <v>583.27</v>
+        <v>402.01299999999998</v>
       </c>
       <c r="F4">
-        <v>536.25900000000001</v>
+        <v>333.47300000000001</v>
       </c>
       <c r="G4">
-        <v>3676.01</v>
+        <v>1896.9459999999999</v>
       </c>
       <c r="H4">
-        <v>4675.5209999999997</v>
+        <v>2744.5509999999999</v>
       </c>
       <c r="I4">
-        <v>142.94499999999999</v>
+        <v>60.74</v>
       </c>
       <c r="J4">
-        <v>746.29</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>878.86099999999999</v>
+        <v>984.08500000000004</v>
       </c>
       <c r="O4">
-        <v>1814.6279999999999</v>
+        <v>984.08500000000004</v>
       </c>
       <c r="P4">
-        <v>746.29</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>72.570999999999998</v>
+        <v>92.293999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="T4">
-        <v>2860.893</v>
+        <v>1760.4659999999999</v>
       </c>
       <c r="U4">
-        <v>711.32899999999995</v>
+        <v>529.67399999999998</v>
       </c>
       <c r="V4">
-        <v>289.80200000000002</v>
+        <v>235.762</v>
       </c>
       <c r="W4">
-        <v>-41.862000000000002</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-82.322000000000003</v>
+        <v>54.061999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-124.259</v>
+        <v>-97.863</v>
       </c>
       <c r="AA4">
-        <v>245.017</v>
+        <v>129.95400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>191.995</v>
+        <v>86.465000000000003</v>
       </c>
       <c r="D5">
-        <v>796.476</v>
+        <v>502.83199999999999</v>
       </c>
       <c r="E5">
-        <v>461.64</v>
+        <v>368.54300000000001</v>
       </c>
       <c r="F5">
-        <v>456.12700000000001</v>
+        <v>258.464</v>
       </c>
       <c r="G5">
-        <v>3596.9189999999999</v>
+        <v>1702.2280000000001</v>
       </c>
       <c r="H5">
-        <v>4565.317</v>
+        <v>2626.8820000000001</v>
       </c>
       <c r="I5">
-        <v>114.575</v>
+        <v>54.811</v>
       </c>
       <c r="J5">
-        <v>746.42499999999995</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>734.21900000000005</v>
+        <v>829.27</v>
       </c>
       <c r="O5">
-        <v>1630.722</v>
+        <v>829.27</v>
       </c>
       <c r="P5">
-        <v>746.42499999999995</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>34.618000000000002</v>
+        <v>-190.50299999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2934.5949999999998</v>
+        <v>1797.6120000000001</v>
       </c>
       <c r="U5">
-        <v>745.947</v>
+        <v>339.17099999999999</v>
       </c>
       <c r="V5">
-        <v>218.98500000000001</v>
+        <v>19.393999999999998</v>
       </c>
       <c r="W5">
-        <v>-58.46</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-133.08000000000001</v>
+        <v>-50.912999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-36.58</v>
+        <v>-129.39699999999999</v>
       </c>
       <c r="AA5">
-        <v>191.995</v>
+        <v>86.465000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>110.797</v>
+        <v>49.048000000000002</v>
       </c>
       <c r="D6">
-        <v>642.48199999999997</v>
+        <v>404.14800000000002</v>
       </c>
       <c r="E6">
-        <v>544.09799999999996</v>
+        <v>365.41899999999998</v>
       </c>
       <c r="F6">
-        <v>369.62700000000001</v>
+        <v>202.33699999999999</v>
       </c>
       <c r="G6">
-        <v>3749.0590000000002</v>
+        <v>1650.9459999999999</v>
       </c>
       <c r="H6">
-        <v>4700.9880000000003</v>
+        <v>2605.56</v>
       </c>
       <c r="I6">
-        <v>129.06399999999999</v>
+        <v>42.545999999999999</v>
       </c>
       <c r="J6">
-        <v>746.56100000000004</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>829.98</v>
+        <v>785.33900000000006</v>
       </c>
       <c r="O6">
-        <v>1732.5160000000001</v>
+        <v>785.33900000000006</v>
       </c>
       <c r="P6">
-        <v>746.56100000000004</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>79.039000000000001</v>
+        <v>-36.155000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2968.4720000000002</v>
+        <v>1820.221</v>
       </c>
       <c r="U6">
-        <v>824.98599999999999</v>
+        <v>303.01600000000002</v>
       </c>
       <c r="V6">
-        <v>187.232</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="W6">
-        <v>-58.100999999999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-93.828999999999994</v>
+        <v>-26.236999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-17.585000000000001</v>
       </c>
       <c r="AA6">
-        <v>110.797</v>
+        <v>49.048000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>205.346</v>
+        <v>34.149000000000001</v>
       </c>
       <c r="D7">
-        <v>840.52099999999996</v>
+        <v>357.108</v>
       </c>
       <c r="E7">
-        <v>638.375</v>
+        <v>274.56299999999999</v>
       </c>
       <c r="F7">
-        <v>485.37200000000001</v>
+        <v>175.006</v>
       </c>
       <c r="G7">
-        <v>3987.3270000000002</v>
+        <v>1575.8710000000001</v>
       </c>
       <c r="H7">
-        <v>4933.2039999999997</v>
+        <v>2650.4679999999998</v>
       </c>
       <c r="I7">
-        <v>139.37100000000001</v>
+        <v>32.798999999999999</v>
       </c>
       <c r="J7">
-        <v>746.697</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>872.35500000000002</v>
+        <v>755.58100000000002</v>
       </c>
       <c r="O7">
-        <v>1774.4390000000001</v>
+        <v>755.58100000000002</v>
       </c>
       <c r="P7">
-        <v>746.697</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-61.073</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3158.7649999999999</v>
+        <v>1894.8869999999999</v>
       </c>
       <c r="U7">
-        <v>763.91300000000001</v>
+        <v>306.46199999999999</v>
       </c>
       <c r="V7">
-        <v>262.09399999999999</v>
+        <v>128.47</v>
       </c>
       <c r="W7">
-        <v>-58.524000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-51.182000000000002</v>
+        <v>46.082999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-254.85400000000001</v>
+        <v>-159.154</v>
       </c>
       <c r="AA7">
-        <v>205.346</v>
+        <v>34.149000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>247.87700000000001</v>
+        <v>46.503999999999998</v>
       </c>
       <c r="D8">
-        <v>892.46500000000003</v>
+        <v>373.19400000000002</v>
       </c>
       <c r="E8">
-        <v>701.28</v>
+        <v>277.00599999999997</v>
       </c>
       <c r="F8">
-        <v>530.80200000000002</v>
+        <v>187.08199999999999</v>
       </c>
       <c r="G8">
-        <v>4164.0429999999997</v>
+        <v>1619.288</v>
       </c>
       <c r="H8">
-        <v>5100.308</v>
+        <v>2717.7179999999998</v>
       </c>
       <c r="I8">
-        <v>139.18299999999999</v>
+        <v>52.988</v>
       </c>
       <c r="J8">
-        <v>746.83299999999997</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>862.90700000000004</v>
+        <v>687.49</v>
       </c>
       <c r="O8">
-        <v>1784.713</v>
+        <v>687.49</v>
       </c>
       <c r="P8">
-        <v>746.83299999999997</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-12.619</v>
+        <v>123.358</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>5710</v>
+        <v>5700</v>
       </c>
       <c r="T8">
-        <v>3315.5949999999998</v>
+        <v>2030.2280000000001</v>
       </c>
       <c r="U8">
-        <v>751.29399999999998</v>
+        <v>429.82</v>
       </c>
       <c r="V8">
-        <v>273.30599999999998</v>
+        <v>86.37</v>
       </c>
       <c r="W8">
-        <v>-58.475999999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-86.012</v>
+        <v>22.535</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-182.839</v>
+        <v>16.492999999999999</v>
       </c>
       <c r="AA8">
-        <v>247.87700000000001</v>
+        <v>46.503999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>135.36699999999999</v>
+        <v>51.265000000000001</v>
       </c>
       <c r="D9">
-        <v>720.70899999999995</v>
+        <v>375.52</v>
       </c>
       <c r="E9">
-        <v>537.46</v>
+        <v>256.17399999999998</v>
       </c>
       <c r="F9">
-        <v>403.48399999999998</v>
+        <v>189.17599999999999</v>
       </c>
       <c r="G9">
-        <v>4140.9570000000003</v>
+        <v>1680.203</v>
       </c>
       <c r="H9">
-        <v>5065.4759999999997</v>
+        <v>2706.0549999999998</v>
       </c>
       <c r="I9">
-        <v>116.247</v>
+        <v>36.908999999999999</v>
       </c>
       <c r="J9">
-        <v>746.96799999999996</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>787.101</v>
+        <v>663.58500000000004</v>
       </c>
       <c r="O9">
-        <v>1713.164</v>
+        <v>663.58500000000004</v>
       </c>
       <c r="P9">
-        <v>746.96799999999996</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-41.351999999999997</v>
+        <v>5.8259999999999996</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3352.3119999999999</v>
+        <v>2042.47</v>
       </c>
       <c r="U9">
-        <v>709.94200000000001</v>
+        <v>435.64600000000002</v>
       </c>
       <c r="V9">
-        <v>245.393</v>
+        <v>64.775000000000006</v>
       </c>
       <c r="W9">
-        <v>-66.629000000000005</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-123.631</v>
+        <v>-43.345999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-146.84899999999999</v>
+        <v>-6.9409999999999998</v>
       </c>
       <c r="AA9">
-        <v>135.36699999999999</v>
+        <v>51.265000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>106.63</v>
+        <v>29.228000000000002</v>
       </c>
       <c r="D10">
-        <v>673.01099999999997</v>
+        <v>334.91800000000001</v>
       </c>
       <c r="E10">
-        <v>606.11500000000001</v>
+        <v>257.56099999999998</v>
       </c>
       <c r="F10">
-        <v>369.096</v>
+        <v>163.78</v>
       </c>
       <c r="G10">
-        <v>4136.3</v>
+        <v>1708.8810000000001</v>
       </c>
       <c r="H10">
-        <v>5068.7629999999999</v>
+        <v>2750.846</v>
       </c>
       <c r="I10">
-        <v>103.575</v>
+        <v>22.946999999999999</v>
       </c>
       <c r="J10">
-        <v>747.10400000000004</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>781.73699999999997</v>
+        <v>651.04499999999996</v>
       </c>
       <c r="O10">
-        <v>1707.627</v>
+        <v>651.04499999999996</v>
       </c>
       <c r="P10">
-        <v>747.10400000000004</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>57.371000000000002</v>
+        <v>94.948999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3361.136</v>
+        <v>2099.8009999999999</v>
       </c>
       <c r="U10">
-        <v>767.31299999999999</v>
+        <v>530.59500000000003</v>
       </c>
       <c r="V10">
-        <v>77.442999999999998</v>
+        <v>33.134</v>
       </c>
       <c r="W10">
-        <v>-66.522000000000006</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-114.602</v>
+        <v>28.812999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>112.97199999999999</v>
+        <v>149.22800000000001</v>
       </c>
       <c r="AA10">
-        <v>106.63</v>
+        <v>29.228000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>166.38200000000001</v>
+        <v>27.338999999999999</v>
       </c>
       <c r="D11">
-        <v>729.029</v>
+        <v>304.298</v>
       </c>
       <c r="E11">
-        <v>454.22399999999999</v>
+        <v>231.809</v>
       </c>
       <c r="F11">
-        <v>419.52100000000002</v>
+        <v>147.56700000000001</v>
       </c>
       <c r="G11">
-        <v>4263.6559999999999</v>
+        <v>1770.3309999999999</v>
       </c>
       <c r="H11">
-        <v>5194.473</v>
+        <v>2784.92</v>
       </c>
       <c r="I11">
-        <v>107.753</v>
+        <v>30.143999999999998</v>
       </c>
       <c r="J11">
-        <v>747.24</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>820.00800000000004</v>
+        <v>659.86400000000003</v>
       </c>
       <c r="O11">
-        <v>1748.09</v>
+        <v>659.86400000000003</v>
       </c>
       <c r="P11">
-        <v>747.24</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>166.88800000000001</v>
+        <v>37.420999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3446.3829999999998</v>
+        <v>2125.056</v>
       </c>
       <c r="U11">
-        <v>934.20100000000002</v>
+        <v>568.01599999999996</v>
       </c>
       <c r="V11">
-        <v>414.78300000000002</v>
+        <v>89.231999999999999</v>
       </c>
       <c r="W11">
-        <v>-66.561000000000007</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-86.075000000000003</v>
+        <v>2.738</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-137.33699999999999</v>
+        <v>-54.267000000000003</v>
       </c>
       <c r="AA11">
-        <v>166.38200000000001</v>
+        <v>27.338999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>134.77000000000001</v>
+        <v>29.359000000000002</v>
       </c>
       <c r="D12">
-        <v>720.03200000000004</v>
+        <v>308.31299999999999</v>
       </c>
       <c r="E12">
-        <v>524.61</v>
+        <v>223.535</v>
       </c>
       <c r="F12">
-        <v>413.22800000000001</v>
+        <v>151.02099999999999</v>
       </c>
       <c r="G12">
-        <v>4351.5029999999997</v>
+        <v>1806.383</v>
       </c>
       <c r="H12">
-        <v>5287.357</v>
+        <v>2866.5970000000002</v>
       </c>
       <c r="I12">
-        <v>115.68</v>
+        <v>33.893000000000001</v>
       </c>
       <c r="J12">
-        <v>747.37599999999998</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>861.53200000000004</v>
+        <v>651.05600000000004</v>
       </c>
       <c r="O12">
-        <v>1805.2049999999999</v>
+        <v>651.05600000000004</v>
       </c>
       <c r="P12">
-        <v>747.37599999999998</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>51.189</v>
+        <v>38.887</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>5820</v>
+        <v>4900</v>
       </c>
       <c r="T12">
-        <v>3482.152</v>
+        <v>2215.5410000000002</v>
       </c>
       <c r="U12">
-        <v>985.39</v>
+        <v>606.90300000000002</v>
       </c>
       <c r="V12">
-        <v>175.56899999999999</v>
+        <v>59.116</v>
       </c>
       <c r="W12">
-        <v>-66.180999999999997</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-104.202</v>
+        <v>38.381999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.84099999999999997</v>
+        <v>-55.965000000000003</v>
       </c>
       <c r="AA12">
-        <v>134.77000000000001</v>
+        <v>29.359000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>111.197</v>
+        <v>36.837000000000003</v>
       </c>
       <c r="D13">
-        <v>658.33699999999999</v>
+        <v>317.97000000000003</v>
       </c>
       <c r="E13">
-        <v>440.67399999999998</v>
+        <v>208.607</v>
       </c>
       <c r="F13">
-        <v>380.68</v>
+        <v>162.429</v>
       </c>
       <c r="G13">
-        <v>4354.7380000000003</v>
+        <v>1857.9369999999999</v>
       </c>
       <c r="H13">
-        <v>5283.5519999999997</v>
+        <v>2953.7420000000002</v>
       </c>
       <c r="I13">
-        <v>114.71599999999999</v>
+        <v>49.411999999999999</v>
       </c>
       <c r="J13">
-        <v>747.51099999999997</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>835.11</v>
+        <v>645.18399999999997</v>
       </c>
       <c r="O13">
-        <v>1792.3889999999999</v>
+        <v>645.18399999999997</v>
       </c>
       <c r="P13">
-        <v>747.51099999999997</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-80.441000000000003</v>
+        <v>37.286000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3491.163</v>
+        <v>2308.558</v>
       </c>
       <c r="U13">
-        <v>904.94899999999996</v>
+        <v>644.18899999999996</v>
       </c>
       <c r="V13">
-        <v>177.24799999999999</v>
+        <v>29.734000000000002</v>
       </c>
       <c r="W13">
-        <v>-74.617000000000004</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-123.733</v>
+        <v>58.194000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-114.917</v>
+        <v>-44.271999999999998</v>
       </c>
       <c r="AA13">
-        <v>111.197</v>
+        <v>36.837000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>139.24600000000001</v>
+        <v>44.515000000000001</v>
       </c>
       <c r="D14">
-        <v>705.12900000000002</v>
+        <v>338.53800000000001</v>
       </c>
       <c r="E14">
-        <v>573.077</v>
+        <v>245.84100000000001</v>
       </c>
       <c r="F14">
-        <v>419.315</v>
+        <v>182.16900000000001</v>
       </c>
       <c r="G14">
-        <v>4507.5339999999997</v>
+        <v>1965.2750000000001</v>
       </c>
       <c r="H14">
-        <v>5440.7340000000004</v>
+        <v>3072.433</v>
       </c>
       <c r="I14">
-        <v>141.54499999999999</v>
+        <v>51.722000000000001</v>
       </c>
       <c r="J14">
-        <v>747.64700000000005</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>927.99900000000002</v>
+        <v>673.62599999999998</v>
       </c>
       <c r="O14">
-        <v>1890.527</v>
+        <v>673.62599999999998</v>
       </c>
       <c r="P14">
-        <v>747.64700000000005</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-111.56699999999999</v>
+        <v>16.625</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3550.2069999999999</v>
+        <v>2398.8069999999998</v>
       </c>
       <c r="U14">
-        <v>793.38199999999995</v>
+        <v>660.81399999999996</v>
       </c>
       <c r="V14">
-        <v>115.271</v>
+        <v>33.506999999999998</v>
       </c>
       <c r="W14">
-        <v>-74.983000000000004</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-97.585999999999999</v>
+        <v>44.89</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-111.655</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="AA14">
-        <v>139.24600000000001</v>
+        <v>44.515000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>203.58099999999999</v>
+        <v>66.182000000000002</v>
       </c>
       <c r="D15">
-        <v>831.59900000000005</v>
+        <v>389.77199999999999</v>
       </c>
       <c r="E15">
-        <v>557.66099999999994</v>
+        <v>362.29500000000002</v>
       </c>
       <c r="F15">
-        <v>488.77300000000002</v>
+        <v>219.167</v>
       </c>
       <c r="G15">
-        <v>4542.3289999999997</v>
+        <v>2221.8220000000001</v>
       </c>
       <c r="H15">
-        <v>5486.8509999999997</v>
+        <v>3321.306</v>
       </c>
       <c r="I15">
-        <v>120.771</v>
+        <v>67.471000000000004</v>
       </c>
       <c r="J15">
-        <v>747.78300000000002</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>887.64700000000005</v>
+        <v>833.173</v>
       </c>
       <c r="O15">
-        <v>1846.923</v>
+        <v>833.173</v>
       </c>
       <c r="P15">
-        <v>747.78300000000002</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-17.158999999999999</v>
+        <v>116.48399999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3639.9279999999999</v>
+        <v>2488.1329999999998</v>
       </c>
       <c r="U15">
-        <v>776.22299999999996</v>
+        <v>776.24800000000005</v>
       </c>
       <c r="V15">
-        <v>237.727</v>
+        <v>89.813999999999993</v>
       </c>
       <c r="W15">
-        <v>-74.805000000000007</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-123.041</v>
+        <v>19.016999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-96.376999999999995</v>
+        <v>21.331</v>
       </c>
       <c r="AA15">
-        <v>203.58099999999999</v>
+        <v>66.182000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>128.73099999999999</v>
+        <v>96.167000000000002</v>
       </c>
       <c r="D16">
-        <v>734.34299999999996</v>
+        <v>450.43799999999999</v>
       </c>
       <c r="E16">
-        <v>492.863</v>
+        <v>372.77300000000002</v>
       </c>
       <c r="F16">
-        <v>407.678</v>
+        <v>262.94</v>
       </c>
       <c r="G16">
-        <v>4586.0950000000003</v>
+        <v>2191.502</v>
       </c>
       <c r="H16">
-        <v>5535.8459999999995</v>
+        <v>3539.1790000000001</v>
       </c>
       <c r="I16">
-        <v>103.422</v>
+        <v>63.991</v>
       </c>
       <c r="J16">
-        <v>745.101</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>895.61099999999999</v>
+        <v>911.62900000000002</v>
       </c>
       <c r="O16">
-        <v>1866.5</v>
+        <v>911.62900000000002</v>
       </c>
       <c r="P16">
-        <v>745.101</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-145.36199999999999</v>
+        <v>-21.3</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>6060</v>
+        <v>5200</v>
       </c>
       <c r="T16">
-        <v>3669.346</v>
+        <v>2627.55</v>
       </c>
       <c r="U16">
-        <v>630.86099999999999</v>
+        <v>598.69799999999998</v>
       </c>
       <c r="V16">
-        <v>248.64</v>
+        <v>196.62200000000001</v>
       </c>
       <c r="W16">
-        <v>-74.465999999999994</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-114.527</v>
+        <v>-9.0950000000000006</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-273.23099999999999</v>
+        <v>-188.876</v>
       </c>
       <c r="AA16">
-        <v>128.73099999999999</v>
+        <v>96.167000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>72.233000000000004</v>
+        <v>116.405</v>
       </c>
       <c r="D17">
-        <v>642.90099999999995</v>
+        <v>518.77300000000002</v>
       </c>
       <c r="E17">
-        <v>444.048</v>
+        <v>365.529</v>
       </c>
       <c r="F17">
-        <v>354.43400000000003</v>
+        <v>303.30399999999997</v>
       </c>
       <c r="G17">
-        <v>4368.5370000000003</v>
+        <v>2318.538</v>
       </c>
       <c r="H17">
-        <v>5301.5720000000001</v>
+        <v>3590.0070000000001</v>
       </c>
       <c r="I17">
-        <v>108.28700000000001</v>
+        <v>53.131999999999998</v>
       </c>
       <c r="J17">
-        <v>748.05399999999997</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>804.83699999999999</v>
+        <v>905.12900000000002</v>
       </c>
       <c r="O17">
-        <v>1771.8520000000001</v>
+        <v>905.12900000000002</v>
       </c>
       <c r="P17">
-        <v>748.05399999999997</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>38.822000000000003</v>
+        <v>7.2690000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3529.72</v>
+        <v>2684.8780000000002</v>
       </c>
       <c r="U17">
-        <v>669.68299999999999</v>
+        <v>948.76599999999996</v>
       </c>
       <c r="V17">
-        <v>34.926000000000002</v>
+        <v>90.789000000000001</v>
       </c>
       <c r="W17">
-        <v>-82.412999999999997</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-215.52</v>
+        <v>-62.238999999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>242.57400000000001</v>
+        <v>-1.478</v>
       </c>
       <c r="AA17">
-        <v>72.233000000000004</v>
+        <v>116.405</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>20.268000000000001</v>
+        <v>122.077</v>
       </c>
       <c r="D18">
-        <v>676.35699999999997</v>
+        <v>532.85299999999995</v>
       </c>
       <c r="E18">
-        <v>632.08900000000006</v>
+        <v>446.21600000000001</v>
       </c>
       <c r="F18">
-        <v>393.14400000000001</v>
+        <v>315.11799999999999</v>
       </c>
       <c r="G18">
-        <v>4046.248</v>
+        <v>2464.5549999999998</v>
       </c>
       <c r="H18">
-        <v>4987.366</v>
+        <v>3765.6660000000002</v>
       </c>
       <c r="I18">
-        <v>108.307</v>
+        <v>43.993000000000002</v>
       </c>
       <c r="J18">
-        <v>3208.5709999999999</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>942.34</v>
+        <v>918.69</v>
       </c>
       <c r="O18">
-        <v>4385.2269999999999</v>
+        <v>918.69</v>
       </c>
       <c r="P18">
-        <v>3246.0709999999999</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-84.817999999999998</v>
+        <v>-52.350999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>602.13900000000001</v>
+        <v>2846.9760000000001</v>
       </c>
       <c r="U18">
-        <v>584.86500000000001</v>
+        <v>992.04100000000005</v>
       </c>
       <c r="V18">
-        <v>11.084</v>
+        <v>80.694000000000003</v>
       </c>
       <c r="W18">
-        <v>-36.738999999999997</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-566.06200000000001</v>
+        <v>31.992999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>487.74200000000002</v>
+        <v>-98.328999999999994</v>
       </c>
       <c r="AA18">
-        <v>20.268000000000001</v>
+        <v>122.077</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>131.63800000000001</v>
+        <v>123.163</v>
       </c>
       <c r="D19">
-        <v>738.45899999999995</v>
+        <v>541.61099999999999</v>
       </c>
       <c r="E19">
-        <v>631.60799999999995</v>
+        <v>445.22699999999998</v>
       </c>
       <c r="F19">
-        <v>418.17700000000002</v>
+        <v>319.77300000000002</v>
       </c>
       <c r="G19">
-        <v>3967.1109999999999</v>
+        <v>3267.6439999999998</v>
       </c>
       <c r="H19">
-        <v>4902.22</v>
+        <v>3959.6370000000002</v>
       </c>
       <c r="I19">
-        <v>103.18899999999999</v>
+        <v>65.388999999999996</v>
       </c>
       <c r="J19">
-        <v>3199.299</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>976.61500000000001</v>
+        <v>977.08299999999997</v>
       </c>
       <c r="O19">
-        <v>4408.2790000000005</v>
+        <v>977.08299999999997</v>
       </c>
       <c r="P19">
-        <v>3236.799</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>37.027000000000001</v>
+        <v>42.097000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>493.94099999999997</v>
+        <v>2982.5540000000001</v>
       </c>
       <c r="U19">
-        <v>621.89200000000005</v>
+        <v>806.16099999999994</v>
       </c>
       <c r="V19">
-        <v>242.417</v>
+        <v>181.57599999999999</v>
       </c>
       <c r="W19">
-        <v>-82.25</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-261.71199999999999</v>
+        <v>8.1069999999999993</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>65.009</v>
+        <v>-144.29900000000001</v>
       </c>
       <c r="AA19">
-        <v>131.63800000000001</v>
+        <v>123.163</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>142.01900000000001</v>
+        <v>83.403999999999996</v>
       </c>
       <c r="D20">
-        <v>756.33199999999999</v>
+        <v>488.64100000000002</v>
       </c>
       <c r="E20">
-        <v>585.49400000000003</v>
+        <v>333.21800000000002</v>
       </c>
       <c r="F20">
-        <v>441.065</v>
+        <v>272.68299999999999</v>
       </c>
       <c r="G20">
-        <v>3904.576</v>
+        <v>3201.8910000000001</v>
       </c>
       <c r="H20">
-        <v>4826.0119999999997</v>
+        <v>4040.6030000000001</v>
       </c>
       <c r="I20">
-        <v>103.342</v>
+        <v>67.716999999999999</v>
       </c>
       <c r="J20">
-        <v>3173.4349999999999</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1001.763</v>
+        <v>936.68899999999996</v>
       </c>
       <c r="O20">
-        <v>4404.5730000000003</v>
+        <v>936.68899999999996</v>
       </c>
       <c r="P20">
-        <v>3190.4160000000002</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>216.13300000000001</v>
+        <v>312.26600000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>5880</v>
+        <v>5500</v>
       </c>
       <c r="T20">
-        <v>421.43900000000002</v>
+        <v>3103.9140000000002</v>
       </c>
       <c r="U20">
-        <v>838.02499999999998</v>
+        <v>663.16300000000001</v>
       </c>
       <c r="V20">
-        <v>317.47899999999998</v>
+        <v>153.67599999999999</v>
       </c>
       <c r="W20">
-        <v>-77.852999999999994</v>
+        <v>-23.643999999999998</v>
       </c>
       <c r="X20">
-        <v>-259.678</v>
+        <v>-58.93</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>165.62799999999999</v>
+        <v>223.81100000000001</v>
       </c>
       <c r="AA20">
-        <v>142.01900000000001</v>
+        <v>83.403999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>104.89700000000001</v>
+        <v>75.486999999999995</v>
       </c>
       <c r="D21">
-        <v>642.64400000000001</v>
+        <v>484.26100000000002</v>
       </c>
       <c r="E21">
-        <v>460.81299999999999</v>
+        <v>307.19400000000002</v>
       </c>
       <c r="F21">
-        <v>375.2</v>
+        <v>269.12400000000002</v>
       </c>
       <c r="G21">
-        <v>3675.4180000000001</v>
+        <v>3222.2310000000002</v>
       </c>
       <c r="H21">
-        <v>4571.3230000000003</v>
+        <v>4030.598</v>
       </c>
       <c r="I21">
-        <v>107.363</v>
+        <v>58.000999999999998</v>
       </c>
       <c r="J21">
-        <v>3151.0459999999998</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>915.24099999999999</v>
+        <v>856.39</v>
       </c>
       <c r="O21">
-        <v>4276.8819999999996</v>
+        <v>856.39</v>
       </c>
       <c r="P21">
-        <v>3151.0459999999998</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-74.328000000000003</v>
+        <v>85.358999999999995</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>294.44099999999997</v>
+        <v>3174.2080000000001</v>
       </c>
       <c r="U21">
-        <v>763.697</v>
+        <v>863.78200000000004</v>
       </c>
       <c r="V21">
-        <v>193.78200000000001</v>
+        <v>12.489000000000001</v>
       </c>
       <c r="W21">
-        <v>-81.674000000000007</v>
+        <v>-23.709</v>
       </c>
       <c r="X21">
-        <v>-295.63299999999998</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>41.968000000000004</v>
+        <v>87.66</v>
       </c>
       <c r="AA21">
-        <v>104.89700000000001</v>
+        <v>75.486999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>152.20699999999999</v>
+        <v>76.605000000000004</v>
       </c>
       <c r="D22">
-        <v>710.245</v>
+        <v>487.68200000000002</v>
       </c>
       <c r="E22">
-        <v>427.11500000000001</v>
+        <v>371.87299999999999</v>
       </c>
       <c r="F22">
-        <v>429.76499999999999</v>
+        <v>271.46699999999998</v>
       </c>
       <c r="G22">
-        <v>3684.7049999999999</v>
+        <v>3348.4740000000002</v>
       </c>
       <c r="H22">
-        <v>4572.5159999999996</v>
+        <v>4164.5360000000001</v>
       </c>
       <c r="I22">
-        <v>122.31399999999999</v>
+        <v>79.141999999999996</v>
       </c>
       <c r="J22">
-        <v>3131.6759999999999</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>858.33</v>
+        <v>859.721</v>
       </c>
       <c r="O22">
-        <v>4206.8909999999996</v>
+        <v>859.721</v>
       </c>
       <c r="P22">
-        <v>3131.6759999999999</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>122.89400000000001</v>
+        <v>188.67099999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>365.625</v>
+        <v>3304.8150000000001</v>
       </c>
       <c r="U22">
-        <v>886.59100000000001</v>
+        <v>964.18799999999999</v>
       </c>
       <c r="V22">
-        <v>100.324</v>
+        <v>60.655000000000001</v>
       </c>
       <c r="W22">
-        <v>-80.88</v>
+        <v>-23.741</v>
       </c>
       <c r="X22">
-        <v>-117.70399999999999</v>
+        <v>11.744999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>144.59299999999999</v>
+        <v>137.63800000000001</v>
       </c>
       <c r="AA22">
-        <v>152.20699999999999</v>
+        <v>76.605000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>175.77699999999999</v>
+        <v>96.683999999999997</v>
       </c>
       <c r="D23">
-        <v>712.43299999999999</v>
+        <v>519.64800000000002</v>
       </c>
       <c r="E23">
-        <v>624.81799999999998</v>
+        <v>456.28800000000001</v>
       </c>
       <c r="F23">
-        <v>437.834</v>
+        <v>293.07299999999998</v>
       </c>
       <c r="G23">
-        <v>3906.473</v>
+        <v>3528.1729999999998</v>
       </c>
       <c r="H23">
-        <v>4782.1019999999999</v>
+        <v>4361.3180000000002</v>
       </c>
       <c r="I23">
-        <v>126.322</v>
+        <v>97.709000000000003</v>
       </c>
       <c r="J23">
-        <v>3097.306</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>997.69200000000001</v>
+        <v>937.10199999999998</v>
       </c>
       <c r="O23">
-        <v>4305.53</v>
+        <v>937.10199999999998</v>
       </c>
       <c r="P23">
-        <v>3097.306</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>39.383000000000003</v>
+        <v>24.802</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>476.572</v>
+        <v>3424.2159999999999</v>
       </c>
       <c r="U23">
-        <v>925.97400000000005</v>
+        <v>961.995</v>
       </c>
       <c r="V23">
-        <v>111.497</v>
+        <v>111.67100000000001</v>
       </c>
       <c r="W23">
-        <v>-80.909000000000006</v>
+        <v>-24.010999999999999</v>
       </c>
       <c r="X23">
-        <v>-118.17400000000001</v>
+        <v>-31.065999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>44.095999999999997</v>
+        <v>-38.920999999999999</v>
       </c>
       <c r="AA23">
-        <v>175.77699999999999</v>
+        <v>96.683999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>271.541</v>
+        <v>131.67599999999999</v>
       </c>
       <c r="D24">
-        <v>919.17100000000005</v>
+        <v>579.03599999999994</v>
       </c>
       <c r="E24">
-        <v>613.23299999999995</v>
+        <v>439.899</v>
       </c>
       <c r="F24">
-        <v>581.803</v>
+        <v>294.87200000000001</v>
       </c>
       <c r="G24">
-        <v>3868.0320000000002</v>
+        <v>3596.9929999999999</v>
       </c>
       <c r="H24">
-        <v>4962.4319999999998</v>
+        <v>4575.9110000000001</v>
       </c>
       <c r="I24">
-        <v>106.517</v>
+        <v>95.191999999999993</v>
       </c>
       <c r="J24">
-        <v>3057.9360000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1002.423</v>
+        <v>1002.481</v>
       </c>
       <c r="O24">
-        <v>4273.3180000000002</v>
+        <v>1002.481</v>
       </c>
       <c r="P24">
-        <v>3057.9360000000001</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>182.51400000000001</v>
+        <v>167.196</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>5580</v>
+        <v>5900</v>
       </c>
       <c r="T24">
-        <v>689.11400000000003</v>
+        <v>3573.43</v>
       </c>
       <c r="U24">
-        <v>1108.4880000000001</v>
+        <v>1129.191</v>
       </c>
       <c r="V24">
-        <v>354.09300000000002</v>
+        <v>130.35400000000001</v>
       </c>
       <c r="W24">
-        <v>-81.02</v>
+        <v>-23.887</v>
       </c>
       <c r="X24">
-        <v>-105.191</v>
+        <v>-68.653000000000006</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-66.114000000000004</v>
+        <v>120.167</v>
       </c>
       <c r="AA24">
-        <v>271.541</v>
+        <v>131.67599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>178.101</v>
+        <v>135.922</v>
       </c>
       <c r="D25">
-        <v>750.673</v>
+        <v>629.36300000000006</v>
       </c>
       <c r="E25">
-        <v>654.69899999999996</v>
+        <v>415.40300000000002</v>
       </c>
       <c r="F25">
-        <v>472.83699999999999</v>
+        <v>359.24400000000003</v>
       </c>
       <c r="G25">
-        <v>3929.1619999999998</v>
+        <v>3649.0309999999999</v>
       </c>
       <c r="H25">
-        <v>4996.098</v>
+        <v>4691.183</v>
       </c>
       <c r="I25">
-        <v>105.066</v>
+        <v>107.247</v>
       </c>
       <c r="J25">
-        <v>3018.567</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>974.74099999999999</v>
+        <v>941.95699999999999</v>
       </c>
       <c r="O25">
-        <v>4214.5889999999999</v>
+        <v>941.95699999999999</v>
       </c>
       <c r="P25">
-        <v>3018.567</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-142.16300000000001</v>
+        <v>70.778000000000006</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>781.50900000000001</v>
+        <v>3749.2260000000001</v>
       </c>
       <c r="U25">
-        <v>966.32500000000005</v>
+        <v>1199.9690000000001</v>
       </c>
       <c r="V25">
-        <v>169.77699999999999</v>
+        <v>106.968</v>
       </c>
       <c r="W25">
-        <v>-81.613</v>
+        <v>-24.16</v>
       </c>
       <c r="X25">
-        <v>-146.68899999999999</v>
+        <v>-4.5149999999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-150.77600000000001</v>
+        <v>-21.853999999999999</v>
       </c>
       <c r="AA25">
-        <v>178.101</v>
+        <v>135.922</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>238.251</v>
+        <v>90.049000000000007</v>
       </c>
       <c r="D26">
-        <v>876.88499999999999</v>
+        <v>649.27</v>
       </c>
       <c r="E26">
-        <v>663.85199999999998</v>
+        <v>448.52</v>
       </c>
       <c r="F26">
-        <v>558.37800000000004</v>
+        <v>354.298</v>
       </c>
       <c r="G26">
-        <v>4031.6390000000001</v>
+        <v>3491.5050000000001</v>
       </c>
       <c r="H26">
-        <v>5094.4560000000001</v>
+        <v>4842.7280000000001</v>
       </c>
       <c r="I26">
-        <v>116.163</v>
+        <v>104.20399999999999</v>
       </c>
       <c r="J26">
-        <v>2729.239</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1187.7360000000001</v>
+        <v>1010.169</v>
       </c>
       <c r="O26">
-        <v>4129.3599999999997</v>
+        <v>1010.169</v>
       </c>
       <c r="P26">
-        <v>2979.1970000000001</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-29.292000000000002</v>
+        <v>-336.58499999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>965.096</v>
+        <v>3832.5590000000002</v>
       </c>
       <c r="U26">
-        <v>937.03300000000002</v>
+        <v>863.38400000000001</v>
       </c>
       <c r="V26">
-        <v>222.41300000000001</v>
+        <v>149.63999999999999</v>
       </c>
       <c r="W26">
-        <v>-84.528999999999996</v>
+        <v>-23.966999999999999</v>
       </c>
       <c r="X26">
-        <v>-100.914</v>
+        <v>-23.966999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-136.637</v>
+        <v>-57.942999999999998</v>
       </c>
       <c r="AA26">
-        <v>238.251</v>
+        <v>90.049000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>253.56200000000001</v>
+        <v>154.785</v>
       </c>
       <c r="D27">
-        <v>913.80899999999997</v>
+        <v>716.20799999999997</v>
       </c>
       <c r="E27">
-        <v>734.71699999999998</v>
+        <v>499.298</v>
       </c>
       <c r="F27">
-        <v>570.53499999999997</v>
+        <v>409.45699999999999</v>
       </c>
       <c r="G27">
-        <v>4253.33</v>
+        <v>2947.1550000000002</v>
       </c>
       <c r="H27">
-        <v>5324.4449999999997</v>
+        <v>4340.7929999999997</v>
       </c>
       <c r="I27">
-        <v>139.452</v>
+        <v>93.805000000000007</v>
       </c>
       <c r="J27">
-        <v>2704.8560000000002</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1249.1859999999999</v>
+        <v>1029.5360000000001</v>
       </c>
       <c r="O27">
-        <v>4177.1329999999998</v>
+        <v>1029.5360000000001</v>
       </c>
       <c r="P27">
-        <v>2954.8270000000002</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>18.774000000000001</v>
+        <v>-258.96800000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1147.3119999999999</v>
+        <v>3311.2570000000001</v>
       </c>
       <c r="U27">
-        <v>955.80700000000002</v>
+        <v>604.41600000000005</v>
       </c>
       <c r="V27">
-        <v>224.83799999999999</v>
+        <v>198.608</v>
       </c>
       <c r="W27">
-        <v>-84.614000000000004</v>
+        <v>-23.893000000000001</v>
       </c>
       <c r="X27">
-        <v>-112.22799999999999</v>
+        <v>-680.50199999999995</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-91.403000000000006</v>
+        <v>295.66800000000001</v>
       </c>
       <c r="AA27">
-        <v>253.56200000000001</v>
+        <v>154.785</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>256.16199999999998</v>
+        <v>147.34200000000001</v>
       </c>
       <c r="D28">
-        <v>938.64700000000005</v>
+        <v>736.38800000000003</v>
       </c>
       <c r="E28">
-        <v>571.11699999999996</v>
+        <v>581.5</v>
       </c>
       <c r="F28">
-        <v>590.71699999999998</v>
+        <v>417.60700000000003</v>
       </c>
       <c r="G28">
-        <v>4392.0659999999998</v>
+        <v>3252.7710000000002</v>
       </c>
       <c r="H28">
-        <v>5532.1729999999998</v>
+        <v>4623.2489999999998</v>
       </c>
       <c r="I28">
-        <v>147.38</v>
+        <v>92.165000000000006</v>
       </c>
       <c r="J28">
-        <v>2680.4740000000002</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1293.162</v>
+        <v>1005.562</v>
       </c>
       <c r="O28">
-        <v>4205.7560000000003</v>
+        <v>1073.2070000000001</v>
       </c>
       <c r="P28">
-        <v>2930.4569999999999</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>197.244</v>
+        <v>118.095</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>5990</v>
+        <v>6000</v>
       </c>
       <c r="T28">
-        <v>1326.4169999999999</v>
+        <v>3550.0419999999999</v>
       </c>
       <c r="U28">
-        <v>1153.0509999999999</v>
+        <v>722.51099999999997</v>
       </c>
       <c r="V28">
-        <v>462.637</v>
+        <v>155.47</v>
       </c>
       <c r="W28">
-        <v>-84.637</v>
+        <v>-23.036999999999999</v>
       </c>
       <c r="X28">
-        <v>-112.974</v>
+        <v>75.757000000000005</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-117.431</v>
+        <v>-9.6639999999999997</v>
       </c>
       <c r="AA28">
-        <v>256.16199999999998</v>
+        <v>147.34200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>280.93599999999998</v>
+        <v>88.158000000000001</v>
       </c>
       <c r="D29">
-        <v>969.58100000000002</v>
+        <v>693.02</v>
       </c>
       <c r="E29">
-        <v>666.73800000000006</v>
+        <v>618.95899999999995</v>
       </c>
       <c r="F29">
-        <v>616.46400000000006</v>
+        <v>387.12700000000001</v>
       </c>
       <c r="G29">
-        <v>4559.4960000000001</v>
+        <v>2817.6060000000002</v>
       </c>
       <c r="H29">
-        <v>5690.3980000000001</v>
+        <v>4192.1000000000004</v>
       </c>
       <c r="I29">
-        <v>138.65700000000001</v>
+        <v>119.05</v>
       </c>
       <c r="J29">
-        <v>2524.8420000000001</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-156.25</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1466.04</v>
+        <v>959.82399999999996</v>
       </c>
       <c r="O29">
-        <v>4226.442</v>
+        <v>1134.5920000000001</v>
       </c>
       <c r="P29">
-        <v>2774.8380000000002</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>167.64599999999999</v>
+        <v>-208.46</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1463.9559999999999</v>
+        <v>3057.5079999999998</v>
       </c>
       <c r="U29">
-        <v>1320.6969999999999</v>
+        <v>514.05100000000004</v>
       </c>
       <c r="V29">
-        <v>373.62900000000002</v>
+        <v>205.785</v>
       </c>
       <c r="W29">
-        <v>-94.126999999999995</v>
+        <v>-28.459</v>
       </c>
       <c r="X29">
-        <v>-320.13200000000001</v>
+        <v>-612.49800000000005</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>127.01600000000001</v>
+        <v>218.68700000000001</v>
       </c>
       <c r="AA29">
-        <v>280.93599999999998</v>
+        <v>88.158000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-134.31899999999999</v>
+        <v>83.935000000000002</v>
       </c>
       <c r="D30">
-        <v>975.822</v>
+        <v>635.78300000000002</v>
       </c>
       <c r="E30">
-        <v>740.90300000000002</v>
+        <v>578.59500000000003</v>
       </c>
       <c r="F30">
-        <v>628.82000000000005</v>
+        <v>360.916</v>
       </c>
       <c r="G30">
-        <v>4353.9930000000004</v>
+        <v>2812.31</v>
       </c>
       <c r="H30">
-        <v>5407.268</v>
+        <v>4153.8249999999998</v>
       </c>
       <c r="I30">
-        <v>149.84399999999999</v>
+        <v>114.691</v>
       </c>
       <c r="J30">
-        <v>2486.4259999999999</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1166.548</v>
+        <v>940.89200000000005</v>
       </c>
       <c r="O30">
-        <v>4181.643</v>
+        <v>1110.046</v>
       </c>
       <c r="P30">
-        <v>2486.4259999999999</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-247.303</v>
+        <v>33.591999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1225.625</v>
+        <v>3043.779</v>
       </c>
       <c r="U30">
-        <v>1073.394</v>
+        <v>547.64300000000003</v>
       </c>
       <c r="V30">
-        <v>129.37100000000001</v>
+        <v>125.208</v>
       </c>
       <c r="W30">
-        <v>-92.575000000000003</v>
+        <v>-27.151</v>
       </c>
       <c r="X30">
-        <v>-406.29700000000003</v>
+        <v>-121.34</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>41.956000000000003</v>
+        <v>22.484000000000002</v>
       </c>
       <c r="AA30">
-        <v>-134.31899999999999</v>
+        <v>83.935000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>306.88099999999997</v>
+        <v>110.98</v>
       </c>
       <c r="D31">
-        <v>1021.294</v>
+        <v>602.21900000000005</v>
       </c>
       <c r="E31">
-        <v>660.45500000000004</v>
+        <v>573.28399999999999</v>
       </c>
       <c r="F31">
-        <v>652.93799999999999</v>
+        <v>316.56900000000002</v>
       </c>
       <c r="G31">
-        <v>4540.5140000000001</v>
+        <v>2776.7020000000002</v>
       </c>
       <c r="H31">
-        <v>5598.1840000000002</v>
+        <v>4111.0050000000001</v>
       </c>
       <c r="I31">
-        <v>169.459</v>
+        <v>101.239</v>
       </c>
       <c r="J31">
-        <v>2461.9140000000002</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1200.4349999999999</v>
+        <v>983.89800000000002</v>
       </c>
       <c r="O31">
-        <v>4228.0410000000002</v>
+        <v>1121.915</v>
       </c>
       <c r="P31">
-        <v>2461.9140000000002</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>182.28800000000001</v>
+        <v>15.839</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1370.143</v>
+        <v>2989.09</v>
       </c>
       <c r="U31">
-        <v>1255.682</v>
+        <v>563.48199999999997</v>
       </c>
       <c r="V31">
-        <v>352.60700000000003</v>
+        <v>144.803</v>
       </c>
       <c r="W31">
-        <v>-92.028000000000006</v>
+        <v>-26.556999999999999</v>
       </c>
       <c r="X31">
-        <v>-202.28800000000001</v>
+        <v>-199.416</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>43.576999999999998</v>
+        <v>617.10699999999997</v>
       </c>
       <c r="AA31">
-        <v>306.88099999999997</v>
+        <v>110.98</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>348.767</v>
+        <v>76.010000000000005</v>
       </c>
       <c r="D32">
-        <v>1070.0039999999999</v>
+        <v>590.69399999999996</v>
       </c>
       <c r="E32">
-        <v>651.678</v>
+        <v>492.488</v>
       </c>
       <c r="F32">
-        <v>692.43799999999999</v>
+        <v>326.548</v>
       </c>
       <c r="G32">
-        <v>4549</v>
+        <v>3035.7640000000001</v>
       </c>
       <c r="H32">
-        <v>5638.6189999999997</v>
+        <v>4848.3900000000003</v>
       </c>
       <c r="I32">
-        <v>169.35400000000001</v>
+        <v>104.315</v>
       </c>
       <c r="J32">
-        <v>2237.402</v>
+        <v>744.66099999999994</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1214.27</v>
+        <v>950.33199999999999</v>
       </c>
       <c r="O32">
-        <v>4018.1080000000002</v>
+        <v>1866.66</v>
       </c>
       <c r="P32">
-        <v>2237.402</v>
+        <v>744.66099999999994</v>
       </c>
       <c r="Q32">
-        <v>148.69999999999999</v>
+        <v>564.62400000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>6550</v>
+        <v>6000</v>
       </c>
       <c r="T32">
-        <v>1620.511</v>
+        <v>2981.73</v>
       </c>
       <c r="U32">
-        <v>1404.3820000000001</v>
+        <v>1128.106</v>
       </c>
       <c r="V32">
-        <v>373.51299999999998</v>
+        <v>186.815</v>
       </c>
       <c r="W32">
-        <v>-116.935</v>
+        <v>-26.353999999999999</v>
       </c>
       <c r="X32">
-        <v>-341.38600000000002</v>
+        <v>614.31600000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>159.44900000000001</v>
+        <v>-317.64299999999997</v>
       </c>
       <c r="AA32">
-        <v>348.767</v>
+        <v>76.010000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>395.94400000000002</v>
+        <v>19.289000000000001</v>
       </c>
       <c r="D33">
-        <v>1093.26</v>
+        <v>532.51300000000003</v>
       </c>
       <c r="E33">
-        <v>617.58299999999997</v>
+        <v>370.34300000000002</v>
       </c>
       <c r="F33">
-        <v>711.87300000000005</v>
+        <v>279.7</v>
       </c>
       <c r="G33">
-        <v>4521.0439999999999</v>
+        <v>2627.2020000000002</v>
       </c>
       <c r="H33">
-        <v>5645.1090000000004</v>
+        <v>4482.2470000000003</v>
       </c>
       <c r="I33">
-        <v>154.93</v>
+        <v>102.661</v>
       </c>
       <c r="J33">
-        <v>2237.89</v>
+        <v>744.79600000000005</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1310.93</v>
+        <v>775.58600000000001</v>
       </c>
       <c r="O33">
-        <v>4077.74</v>
+        <v>1721.646</v>
       </c>
       <c r="P33">
-        <v>2237.89</v>
+        <v>744.79600000000005</v>
       </c>
       <c r="Q33">
-        <v>245.13200000000001</v>
+        <v>-394.64699999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1567.3689999999999</v>
+        <v>2760.6010000000001</v>
       </c>
       <c r="U33">
-        <v>1649.5139999999999</v>
+        <v>733.45899999999995</v>
       </c>
       <c r="V33">
-        <v>381.40499999999997</v>
+        <v>81.356999999999999</v>
       </c>
       <c r="W33">
-        <v>-119.95699999999999</v>
+        <v>-25.84</v>
       </c>
       <c r="X33">
-        <v>-449.69200000000001</v>
+        <v>-205.995</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>345.995</v>
+        <v>-122.378</v>
       </c>
       <c r="AA33">
-        <v>395.94400000000002</v>
+        <v>19.289000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>369.1</v>
+        <v>-434.25400000000002</v>
       </c>
       <c r="D34">
-        <v>1119.8979999999999</v>
+        <v>396.589</v>
       </c>
       <c r="E34">
-        <v>681.39599999999996</v>
+        <v>332.35300000000001</v>
       </c>
       <c r="F34">
-        <v>711.63800000000003</v>
+        <v>158.422</v>
       </c>
       <c r="G34">
-        <v>4485.5140000000001</v>
+        <v>2516.65</v>
       </c>
       <c r="H34">
-        <v>5605.2870000000003</v>
+        <v>3856.0929999999998</v>
       </c>
       <c r="I34">
-        <v>152.49100000000001</v>
+        <v>103.81699999999999</v>
       </c>
       <c r="J34">
-        <v>1988.3820000000001</v>
+        <v>744.93200000000002</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1482.538</v>
+        <v>679.63199999999995</v>
       </c>
       <c r="O34">
-        <v>4007.665</v>
+        <v>1568.962</v>
       </c>
       <c r="P34">
-        <v>2238.3780000000002</v>
+        <v>744.93200000000002</v>
       </c>
       <c r="Q34">
-        <v>144.46799999999999</v>
+        <v>-77.129000000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1597.6220000000001</v>
+        <v>2287.1309999999999</v>
       </c>
       <c r="U34">
-        <v>1793.982</v>
+        <v>656.33</v>
       </c>
       <c r="V34">
-        <v>282.17200000000003</v>
+        <v>-35.6</v>
       </c>
       <c r="W34">
-        <v>-114.462</v>
+        <v>-25.335000000000001</v>
       </c>
       <c r="X34">
-        <v>-347.452</v>
+        <v>-53.261000000000003</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>232.73599999999999</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="AA34">
-        <v>369.1</v>
+        <v>-434.25400000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>192.72800000000001</v>
+        <v>-82.826999999999998</v>
       </c>
       <c r="D35">
-        <v>1097.3109999999999</v>
+        <v>309.61200000000002</v>
       </c>
       <c r="E35">
-        <v>1049.539</v>
+        <v>241.42500000000001</v>
       </c>
       <c r="F35">
-        <v>656.50199999999995</v>
+        <v>100.389</v>
       </c>
       <c r="G35">
-        <v>4442.6279999999997</v>
+        <v>2391.5909999999999</v>
       </c>
       <c r="H35">
-        <v>9187.6049999999996</v>
+        <v>3636.366</v>
       </c>
       <c r="I35">
-        <v>206.24799999999999</v>
+        <v>56.353999999999999</v>
       </c>
       <c r="J35">
-        <v>3172.6489999999999</v>
+        <v>745.06799999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1700.856</v>
+        <v>602.827</v>
       </c>
       <c r="O35">
-        <v>6302.0169999999998</v>
+        <v>1466.5340000000001</v>
       </c>
       <c r="P35">
-        <v>3422.6460000000002</v>
+        <v>745.06799999999998</v>
       </c>
       <c r="Q35">
-        <v>-701.81899999999996</v>
+        <v>8.5990000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2885.5880000000002</v>
+        <v>2169.8319999999999</v>
       </c>
       <c r="U35">
-        <v>1092.163</v>
+        <v>664.92899999999997</v>
       </c>
       <c r="V35">
-        <v>163.59399999999999</v>
+        <v>76.489000000000004</v>
       </c>
       <c r="W35">
-        <v>-113.581</v>
+        <v>-25.484000000000002</v>
       </c>
       <c r="X35">
-        <v>869.28499999999997</v>
+        <v>-26.792999999999999</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>100.58799999999999</v>
+        <v>-20.099</v>
       </c>
       <c r="AA35">
-        <v>192.72800000000001</v>
+        <v>-82.826999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>217.845</v>
+        <v>-25.576000000000001</v>
       </c>
       <c r="D36">
-        <v>1258.4349999999999</v>
+        <v>281.50200000000001</v>
       </c>
       <c r="E36">
-        <v>1084.1279999999999</v>
+        <v>210.143</v>
       </c>
       <c r="F36">
-        <v>617.58699999999999</v>
+        <v>116.881</v>
       </c>
       <c r="G36">
-        <v>4315.0749999999998</v>
+        <v>2398.6170000000002</v>
       </c>
       <c r="H36">
-        <v>9008.5159999999996</v>
+        <v>3609.538</v>
       </c>
       <c r="I36">
-        <v>202.416</v>
+        <v>63.484999999999999</v>
       </c>
       <c r="J36">
-        <v>3173.3829999999998</v>
+        <v>745.20399999999995</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1768.4860000000001</v>
+        <v>546.98199999999997</v>
       </c>
       <c r="O36">
-        <v>6330.8230000000003</v>
+        <v>1425.146</v>
       </c>
       <c r="P36">
-        <v>3423.3820000000001</v>
+        <v>745.20399999999995</v>
       </c>
       <c r="Q36">
-        <v>-76.168999999999997</v>
+        <v>-139.96199999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>10020</v>
+        <v>4900</v>
       </c>
       <c r="T36">
-        <v>2677.6930000000002</v>
+        <v>2184.3919999999998</v>
       </c>
       <c r="U36">
-        <v>1015.994</v>
+        <v>524.96699999999998</v>
       </c>
       <c r="V36">
-        <v>325.46100000000001</v>
+        <v>73.438000000000002</v>
       </c>
       <c r="W36">
-        <v>-121.363</v>
+        <v>-25.49</v>
       </c>
       <c r="X36">
-        <v>-432.14600000000002</v>
+        <v>-13.068</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>84.236999999999995</v>
+        <v>-205.108</v>
       </c>
       <c r="AA36">
-        <v>217.845</v>
+        <v>-25.576000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>346.52499999999998</v>
+        <v>20.405000000000001</v>
       </c>
       <c r="D37">
-        <v>1413.414</v>
+        <v>342.68700000000001</v>
       </c>
       <c r="E37">
-        <v>1165.2560000000001</v>
+        <v>243.92400000000001</v>
       </c>
       <c r="F37">
-        <v>809.173</v>
+        <v>170.79499999999999</v>
       </c>
       <c r="G37">
-        <v>4355.7489999999998</v>
+        <v>2481.4609999999998</v>
       </c>
       <c r="H37">
-        <v>9229.3989999999994</v>
+        <v>3676.27</v>
       </c>
       <c r="I37">
-        <v>221.38800000000001</v>
+        <v>75.561000000000007</v>
       </c>
       <c r="J37">
-        <v>3174.13</v>
+        <v>745.33900000000006</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1943.4469999999999</v>
+        <v>605.05399999999997</v>
       </c>
       <c r="O37">
-        <v>6549.78</v>
+        <v>1469.874</v>
       </c>
       <c r="P37">
-        <v>3528.5369999999998</v>
+        <v>745.33900000000006</v>
       </c>
       <c r="Q37">
-        <v>-27.646000000000001</v>
+        <v>15.872</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2679.6190000000001</v>
+        <v>2206.3960000000002</v>
       </c>
       <c r="U37">
-        <v>988.34799999999996</v>
+        <v>540.83900000000006</v>
       </c>
       <c r="V37">
-        <v>496.245</v>
+        <v>73.248999999999995</v>
       </c>
       <c r="W37">
-        <v>-121.636</v>
+        <v>-25.606000000000002</v>
       </c>
       <c r="X37">
-        <v>-373.613</v>
+        <v>-24.521999999999998</v>
       </c>
       <c r="Y37">
-        <v>75.552000000000007</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-38.481000000000002</v>
+        <v>-36.485999999999997</v>
       </c>
       <c r="AA37">
-        <v>346.52499999999998</v>
+        <v>20.405000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>380.55500000000001</v>
+        <v>21.794</v>
       </c>
       <c r="D38">
-        <v>1509.453</v>
+        <v>440.35500000000002</v>
       </c>
       <c r="E38">
-        <v>1276.8720000000001</v>
+        <v>298.07100000000003</v>
       </c>
       <c r="F38">
-        <v>875.83500000000004</v>
+        <v>233.06899999999999</v>
       </c>
       <c r="G38">
-        <v>4377.4430000000002</v>
+        <v>2587.261</v>
       </c>
       <c r="H38">
-        <v>9250.7199999999993</v>
+        <v>3725.741</v>
       </c>
       <c r="I38">
-        <v>256.64600000000002</v>
+        <v>87.632000000000005</v>
       </c>
       <c r="J38">
-        <v>3399.877</v>
+        <v>745.47500000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1718.2429999999999</v>
+        <v>613.10500000000002</v>
       </c>
       <c r="O38">
-        <v>6562.75</v>
+        <v>1498.807</v>
       </c>
       <c r="P38">
-        <v>3502.4340000000002</v>
+        <v>745.47500000000002</v>
       </c>
       <c r="Q38">
-        <v>-48.484000000000002</v>
+        <v>-9.3949999999999996</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2687.97</v>
+        <v>2226.9340000000002</v>
       </c>
       <c r="U38">
-        <v>939.86400000000003</v>
+        <v>531.44399999999996</v>
       </c>
       <c r="V38">
-        <v>387.73099999999999</v>
+        <v>163.601</v>
       </c>
       <c r="W38">
-        <v>-134.696</v>
+        <v>-25.686</v>
       </c>
       <c r="X38">
-        <v>-432.03</v>
+        <v>-15.512</v>
       </c>
       <c r="Y38">
-        <v>72.62</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>24.271000000000001</v>
+        <v>-151.751</v>
       </c>
       <c r="AA38">
-        <v>380.55500000000001</v>
+        <v>21.794</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>78.451999999999998</v>
+        <v>57.015999999999998</v>
       </c>
       <c r="D39">
-        <v>1423.9639999999999</v>
+        <v>478.29899999999998</v>
       </c>
       <c r="E39">
-        <v>1210.645</v>
+        <v>322.54199999999997</v>
       </c>
       <c r="F39">
-        <v>833.80600000000004</v>
+        <v>269.73399999999998</v>
       </c>
       <c r="G39">
-        <v>4318.4650000000001</v>
+        <v>2675.567</v>
       </c>
       <c r="H39">
-        <v>8845.9459999999999</v>
+        <v>3789.8449999999998</v>
       </c>
       <c r="I39">
-        <v>243.23400000000001</v>
+        <v>91.644999999999996</v>
       </c>
       <c r="J39">
-        <v>3443.9369999999999</v>
+        <v>745.61099999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1653.2739999999999</v>
+        <v>686.76199999999994</v>
       </c>
       <c r="O39">
-        <v>6520.75</v>
+        <v>1570.8209999999999</v>
       </c>
       <c r="P39">
-        <v>3539.9810000000002</v>
+        <v>745.61099999999999</v>
       </c>
       <c r="Q39">
-        <v>6.3109999999999999</v>
+        <v>12.061</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2325.1959999999999</v>
+        <v>2219.0239999999999</v>
       </c>
       <c r="U39">
-        <v>946.17499999999995</v>
+        <v>543.505</v>
       </c>
       <c r="V39">
-        <v>442.02800000000002</v>
+        <v>127.672</v>
       </c>
       <c r="W39">
-        <v>-133.327</v>
+        <v>-25.731000000000002</v>
       </c>
       <c r="X39">
-        <v>-432.637</v>
+        <v>-80.718999999999994</v>
       </c>
       <c r="Y39">
-        <v>67.524000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>46.68</v>
+        <v>-20.67</v>
       </c>
       <c r="AA39">
-        <v>78.451999999999998</v>
+        <v>57.015999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>411.25299999999999</v>
+        <v>113.08499999999999</v>
       </c>
       <c r="D40">
-        <v>1459.5930000000001</v>
+        <v>559.41899999999998</v>
       </c>
       <c r="E40">
-        <v>1207.289</v>
+        <v>440.125</v>
       </c>
       <c r="F40">
-        <v>838.04899999999998</v>
+        <v>331.5</v>
       </c>
       <c r="G40">
-        <v>4723.5450000000001</v>
+        <v>2835.4650000000001</v>
       </c>
       <c r="H40">
-        <v>9279.9599999999991</v>
+        <v>3907.056</v>
       </c>
       <c r="I40">
-        <v>264.27999999999997</v>
+        <v>107.938</v>
       </c>
       <c r="J40">
-        <v>3469.67</v>
+        <v>745.74699999999996</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1699.7860000000001</v>
+        <v>771.78700000000003</v>
       </c>
       <c r="O40">
-        <v>6598.95</v>
+        <v>1660.4449999999999</v>
       </c>
       <c r="P40">
-        <v>3569.549</v>
+        <v>745.74699999999996</v>
       </c>
       <c r="Q40">
-        <v>288.23399999999998</v>
+        <v>-13.587</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>10600</v>
+        <v>5000</v>
       </c>
       <c r="T40">
-        <v>2681.01</v>
+        <v>2246.6109999999999</v>
       </c>
       <c r="U40">
-        <v>1234.4090000000001</v>
+        <v>529.91800000000001</v>
       </c>
       <c r="V40">
-        <v>452.846</v>
+        <v>83.278000000000006</v>
       </c>
       <c r="W40">
-        <v>-132.762</v>
+        <v>-25.385999999999999</v>
       </c>
       <c r="X40">
-        <v>-61.354999999999997</v>
+        <v>-95.578000000000003</v>
       </c>
       <c r="Y40">
-        <v>70.885000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-53.965000000000003</v>
+        <v>6.7670000000000003</v>
       </c>
       <c r="AA40">
-        <v>411.25299999999999</v>
+        <v>113.08499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>420.56700000000001</v>
+        <v>154.196</v>
       </c>
       <c r="D41">
-        <v>1538.62</v>
+        <v>682.34199999999998</v>
       </c>
       <c r="E41">
-        <v>1126.634</v>
+        <v>500.02199999999999</v>
       </c>
       <c r="F41">
-        <v>918.05799999999999</v>
+        <v>418.37299999999999</v>
       </c>
       <c r="G41">
-        <v>4754.6989999999996</v>
+        <v>2933.3609999999999</v>
       </c>
       <c r="H41">
-        <v>9320.0959999999995</v>
+        <v>4002.8649999999998</v>
       </c>
       <c r="I41">
-        <v>254.458</v>
+        <v>138.226</v>
       </c>
       <c r="J41">
-        <v>3420.4029999999998</v>
+        <v>745.88199999999995</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1748.828</v>
+        <v>763.61800000000005</v>
       </c>
       <c r="O41">
-        <v>6557.7510000000002</v>
+        <v>1661.6079999999999</v>
       </c>
       <c r="P41">
-        <v>3519.252</v>
+        <v>745.88199999999995</v>
       </c>
       <c r="Q41">
-        <v>-18.588999999999999</v>
+        <v>8.4659999999999993</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2762.3449999999998</v>
+        <v>2341.2570000000001</v>
       </c>
       <c r="U41">
-        <v>1215.82</v>
+        <v>538.38400000000001</v>
       </c>
       <c r="V41">
-        <v>512.17100000000005</v>
+        <v>95.528000000000006</v>
       </c>
       <c r="W41">
-        <v>-141.16399999999999</v>
+        <v>-41.784999999999997</v>
       </c>
       <c r="X41">
-        <v>-404.20600000000002</v>
+        <v>-110.505</v>
       </c>
       <c r="Y41">
-        <v>69.430999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-82.123000000000005</v>
+        <v>25.318000000000001</v>
       </c>
       <c r="AA41">
-        <v>420.56700000000001</v>
+        <v>154.196</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>185.49199999999999</v>
+      </c>
+      <c r="D42">
+        <v>766.327</v>
+      </c>
+      <c r="E42">
+        <v>531.45299999999997</v>
+      </c>
+      <c r="F42">
+        <v>454.92899999999997</v>
+      </c>
+      <c r="G42">
+        <v>3126.3110000000001</v>
+      </c>
+      <c r="H42">
+        <v>4168.4610000000002</v>
+      </c>
+      <c r="I42">
+        <v>123.166</v>
+      </c>
+      <c r="J42">
+        <v>746.01800000000003</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>793.93700000000001</v>
+      </c>
+      <c r="O42">
+        <v>1702.2270000000001</v>
+      </c>
+      <c r="P42">
+        <v>746.01800000000003</v>
+      </c>
+      <c r="Q42">
+        <v>57.72</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2466.2339999999999</v>
+      </c>
+      <c r="U42">
+        <v>596.10400000000004</v>
+      </c>
+      <c r="V42">
+        <v>193.92500000000001</v>
+      </c>
+      <c r="W42">
+        <v>-41.808999999999997</v>
+      </c>
+      <c r="X42">
+        <v>-80.790000000000006</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-64.176000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>185.49199999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>209.78299999999999</v>
+      </c>
+      <c r="D43">
+        <v>834.05899999999997</v>
+      </c>
+      <c r="E43">
+        <v>566.06899999999996</v>
+      </c>
+      <c r="F43">
+        <v>506.363</v>
+      </c>
+      <c r="G43">
+        <v>3430.8910000000001</v>
+      </c>
+      <c r="H43">
+        <v>4449.3429999999998</v>
+      </c>
+      <c r="I43">
+        <v>142.126</v>
+      </c>
+      <c r="J43">
+        <v>746.154</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>856.73699999999997</v>
+      </c>
+      <c r="O43">
+        <v>1776.326</v>
+      </c>
+      <c r="P43">
+        <v>746.154</v>
+      </c>
+      <c r="Q43">
+        <v>42.654000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2673.0169999999998</v>
+      </c>
+      <c r="U43">
+        <v>638.75800000000004</v>
+      </c>
+      <c r="V43">
+        <v>243.911</v>
+      </c>
+      <c r="W43">
+        <v>-41.942</v>
+      </c>
+      <c r="X43">
+        <v>-26.538</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-163.42699999999999</v>
+      </c>
+      <c r="AA43">
+        <v>209.78299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>245.017</v>
+      </c>
+      <c r="D44">
+        <v>892.43899999999996</v>
+      </c>
+      <c r="E44">
+        <v>583.27</v>
+      </c>
+      <c r="F44">
+        <v>536.25900000000001</v>
+      </c>
+      <c r="G44">
+        <v>3676.01</v>
+      </c>
+      <c r="H44">
+        <v>4675.5209999999997</v>
+      </c>
+      <c r="I44">
+        <v>142.94499999999999</v>
+      </c>
+      <c r="J44">
+        <v>746.29</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>878.86099999999999</v>
+      </c>
+      <c r="O44">
+        <v>1814.6279999999999</v>
+      </c>
+      <c r="P44">
+        <v>746.29</v>
+      </c>
+      <c r="Q44">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>5500</v>
+      </c>
+      <c r="T44">
+        <v>2860.893</v>
+      </c>
+      <c r="U44">
+        <v>711.32899999999995</v>
+      </c>
+      <c r="V44">
+        <v>289.80200000000002</v>
+      </c>
+      <c r="W44">
+        <v>-41.862000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-82.322000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-124.259</v>
+      </c>
+      <c r="AA44">
+        <v>245.017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>191.995</v>
+      </c>
+      <c r="D45">
+        <v>796.476</v>
+      </c>
+      <c r="E45">
+        <v>461.64</v>
+      </c>
+      <c r="F45">
+        <v>456.12700000000001</v>
+      </c>
+      <c r="G45">
+        <v>3596.9189999999999</v>
+      </c>
+      <c r="H45">
+        <v>4565.317</v>
+      </c>
+      <c r="I45">
+        <v>114.575</v>
+      </c>
+      <c r="J45">
+        <v>746.42499999999995</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>734.21900000000005</v>
+      </c>
+      <c r="O45">
+        <v>1630.722</v>
+      </c>
+      <c r="P45">
+        <v>746.42499999999995</v>
+      </c>
+      <c r="Q45">
+        <v>34.618000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2934.5949999999998</v>
+      </c>
+      <c r="U45">
+        <v>745.947</v>
+      </c>
+      <c r="V45">
+        <v>218.98500000000001</v>
+      </c>
+      <c r="W45">
+        <v>-58.46</v>
+      </c>
+      <c r="X45">
+        <v>-133.08000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-36.58</v>
+      </c>
+      <c r="AA45">
+        <v>191.995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>110.797</v>
+      </c>
+      <c r="D46">
+        <v>642.48199999999997</v>
+      </c>
+      <c r="E46">
+        <v>544.09799999999996</v>
+      </c>
+      <c r="F46">
+        <v>369.62700000000001</v>
+      </c>
+      <c r="G46">
+        <v>3749.0590000000002</v>
+      </c>
+      <c r="H46">
+        <v>4700.9880000000003</v>
+      </c>
+      <c r="I46">
+        <v>129.06399999999999</v>
+      </c>
+      <c r="J46">
+        <v>746.56100000000004</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>829.98</v>
+      </c>
+      <c r="O46">
+        <v>1732.5160000000001</v>
+      </c>
+      <c r="P46">
+        <v>746.56100000000004</v>
+      </c>
+      <c r="Q46">
+        <v>79.039000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2968.4720000000002</v>
+      </c>
+      <c r="U46">
+        <v>824.98599999999999</v>
+      </c>
+      <c r="V46">
+        <v>187.232</v>
+      </c>
+      <c r="W46">
+        <v>-58.100999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-93.828999999999994</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.75</v>
+      </c>
+      <c r="AA46">
+        <v>110.797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>205.346</v>
+      </c>
+      <c r="D47">
+        <v>840.52099999999996</v>
+      </c>
+      <c r="E47">
+        <v>638.375</v>
+      </c>
+      <c r="F47">
+        <v>485.37200000000001</v>
+      </c>
+      <c r="G47">
+        <v>3987.3270000000002</v>
+      </c>
+      <c r="H47">
+        <v>4933.2039999999997</v>
+      </c>
+      <c r="I47">
+        <v>139.37100000000001</v>
+      </c>
+      <c r="J47">
+        <v>746.697</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>872.35500000000002</v>
+      </c>
+      <c r="O47">
+        <v>1774.4390000000001</v>
+      </c>
+      <c r="P47">
+        <v>746.697</v>
+      </c>
+      <c r="Q47">
+        <v>-61.073</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3158.7649999999999</v>
+      </c>
+      <c r="U47">
+        <v>763.91300000000001</v>
+      </c>
+      <c r="V47">
+        <v>262.09399999999999</v>
+      </c>
+      <c r="W47">
+        <v>-58.524000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-51.182000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-254.85400000000001</v>
+      </c>
+      <c r="AA47">
+        <v>205.346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>247.87700000000001</v>
+      </c>
+      <c r="D48">
+        <v>892.46500000000003</v>
+      </c>
+      <c r="E48">
+        <v>701.28</v>
+      </c>
+      <c r="F48">
+        <v>530.80200000000002</v>
+      </c>
+      <c r="G48">
+        <v>4164.0429999999997</v>
+      </c>
+      <c r="H48">
+        <v>5100.308</v>
+      </c>
+      <c r="I48">
+        <v>139.18299999999999</v>
+      </c>
+      <c r="J48">
+        <v>746.83299999999997</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>862.90700000000004</v>
+      </c>
+      <c r="O48">
+        <v>1784.713</v>
+      </c>
+      <c r="P48">
+        <v>746.83299999999997</v>
+      </c>
+      <c r="Q48">
+        <v>-12.619</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>5710</v>
+      </c>
+      <c r="T48">
+        <v>3315.5949999999998</v>
+      </c>
+      <c r="U48">
+        <v>751.29399999999998</v>
+      </c>
+      <c r="V48">
+        <v>273.30599999999998</v>
+      </c>
+      <c r="W48">
+        <v>-58.475999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-86.012</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-182.839</v>
+      </c>
+      <c r="AA48">
+        <v>247.87700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>135.36699999999999</v>
+      </c>
+      <c r="D49">
+        <v>720.70899999999995</v>
+      </c>
+      <c r="E49">
+        <v>537.46</v>
+      </c>
+      <c r="F49">
+        <v>403.48399999999998</v>
+      </c>
+      <c r="G49">
+        <v>4140.9570000000003</v>
+      </c>
+      <c r="H49">
+        <v>5065.4759999999997</v>
+      </c>
+      <c r="I49">
+        <v>116.247</v>
+      </c>
+      <c r="J49">
+        <v>746.96799999999996</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>787.101</v>
+      </c>
+      <c r="O49">
+        <v>1713.164</v>
+      </c>
+      <c r="P49">
+        <v>746.96799999999996</v>
+      </c>
+      <c r="Q49">
+        <v>-41.351999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3352.3119999999999</v>
+      </c>
+      <c r="U49">
+        <v>709.94200000000001</v>
+      </c>
+      <c r="V49">
+        <v>245.393</v>
+      </c>
+      <c r="W49">
+        <v>-66.629000000000005</v>
+      </c>
+      <c r="X49">
+        <v>-123.631</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-146.84899999999999</v>
+      </c>
+      <c r="AA49">
+        <v>135.36699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>106.63</v>
+      </c>
+      <c r="D50">
+        <v>673.01099999999997</v>
+      </c>
+      <c r="E50">
+        <v>606.11500000000001</v>
+      </c>
+      <c r="F50">
+        <v>369.096</v>
+      </c>
+      <c r="G50">
+        <v>4136.3</v>
+      </c>
+      <c r="H50">
+        <v>5068.7629999999999</v>
+      </c>
+      <c r="I50">
+        <v>103.575</v>
+      </c>
+      <c r="J50">
+        <v>747.10400000000004</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>781.73699999999997</v>
+      </c>
+      <c r="O50">
+        <v>1707.627</v>
+      </c>
+      <c r="P50">
+        <v>747.10400000000004</v>
+      </c>
+      <c r="Q50">
+        <v>57.371000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3361.136</v>
+      </c>
+      <c r="U50">
+        <v>767.31299999999999</v>
+      </c>
+      <c r="V50">
+        <v>77.442999999999998</v>
+      </c>
+      <c r="W50">
+        <v>-66.522000000000006</v>
+      </c>
+      <c r="X50">
+        <v>-114.602</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>112.97199999999999</v>
+      </c>
+      <c r="AA50">
+        <v>106.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>166.38200000000001</v>
+      </c>
+      <c r="D51">
+        <v>729.029</v>
+      </c>
+      <c r="E51">
+        <v>454.22399999999999</v>
+      </c>
+      <c r="F51">
+        <v>419.52100000000002</v>
+      </c>
+      <c r="G51">
+        <v>4263.6559999999999</v>
+      </c>
+      <c r="H51">
+        <v>5194.473</v>
+      </c>
+      <c r="I51">
+        <v>107.753</v>
+      </c>
+      <c r="J51">
+        <v>747.24</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>820.00800000000004</v>
+      </c>
+      <c r="O51">
+        <v>1748.09</v>
+      </c>
+      <c r="P51">
+        <v>747.24</v>
+      </c>
+      <c r="Q51">
+        <v>166.88800000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3446.3829999999998</v>
+      </c>
+      <c r="U51">
+        <v>934.20100000000002</v>
+      </c>
+      <c r="V51">
+        <v>414.78300000000002</v>
+      </c>
+      <c r="W51">
+        <v>-66.561000000000007</v>
+      </c>
+      <c r="X51">
+        <v>-86.075000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-137.33699999999999</v>
+      </c>
+      <c r="AA51">
+        <v>166.38200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>134.77000000000001</v>
+      </c>
+      <c r="D52">
+        <v>720.03200000000004</v>
+      </c>
+      <c r="E52">
+        <v>524.61</v>
+      </c>
+      <c r="F52">
+        <v>413.22800000000001</v>
+      </c>
+      <c r="G52">
+        <v>4351.5029999999997</v>
+      </c>
+      <c r="H52">
+        <v>5287.357</v>
+      </c>
+      <c r="I52">
+        <v>115.68</v>
+      </c>
+      <c r="J52">
+        <v>747.37599999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>861.53200000000004</v>
+      </c>
+      <c r="O52">
+        <v>1805.2049999999999</v>
+      </c>
+      <c r="P52">
+        <v>747.37599999999998</v>
+      </c>
+      <c r="Q52">
+        <v>51.189</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>5820</v>
+      </c>
+      <c r="T52">
+        <v>3482.152</v>
+      </c>
+      <c r="U52">
+        <v>985.39</v>
+      </c>
+      <c r="V52">
+        <v>175.56899999999999</v>
+      </c>
+      <c r="W52">
+        <v>-66.180999999999997</v>
+      </c>
+      <c r="X52">
+        <v>-104.202</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AA52">
+        <v>134.77000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>111.197</v>
+      </c>
+      <c r="D53">
+        <v>658.33699999999999</v>
+      </c>
+      <c r="E53">
+        <v>440.67399999999998</v>
+      </c>
+      <c r="F53">
+        <v>380.68</v>
+      </c>
+      <c r="G53">
+        <v>4354.7380000000003</v>
+      </c>
+      <c r="H53">
+        <v>5283.5519999999997</v>
+      </c>
+      <c r="I53">
+        <v>114.71599999999999</v>
+      </c>
+      <c r="J53">
+        <v>747.51099999999997</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>835.11</v>
+      </c>
+      <c r="O53">
+        <v>1792.3889999999999</v>
+      </c>
+      <c r="P53">
+        <v>747.51099999999997</v>
+      </c>
+      <c r="Q53">
+        <v>-80.441000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3491.163</v>
+      </c>
+      <c r="U53">
+        <v>904.94899999999996</v>
+      </c>
+      <c r="V53">
+        <v>177.24799999999999</v>
+      </c>
+      <c r="W53">
+        <v>-74.617000000000004</v>
+      </c>
+      <c r="X53">
+        <v>-123.733</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-114.917</v>
+      </c>
+      <c r="AA53">
+        <v>111.197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>139.24600000000001</v>
+      </c>
+      <c r="D54">
+        <v>705.12900000000002</v>
+      </c>
+      <c r="E54">
+        <v>573.077</v>
+      </c>
+      <c r="F54">
+        <v>419.315</v>
+      </c>
+      <c r="G54">
+        <v>4507.5339999999997</v>
+      </c>
+      <c r="H54">
+        <v>5440.7340000000004</v>
+      </c>
+      <c r="I54">
+        <v>141.54499999999999</v>
+      </c>
+      <c r="J54">
+        <v>747.64700000000005</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>927.99900000000002</v>
+      </c>
+      <c r="O54">
+        <v>1890.527</v>
+      </c>
+      <c r="P54">
+        <v>747.64700000000005</v>
+      </c>
+      <c r="Q54">
+        <v>-111.56699999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3550.2069999999999</v>
+      </c>
+      <c r="U54">
+        <v>793.38199999999995</v>
+      </c>
+      <c r="V54">
+        <v>115.271</v>
+      </c>
+      <c r="W54">
+        <v>-74.983000000000004</v>
+      </c>
+      <c r="X54">
+        <v>-97.585999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-111.655</v>
+      </c>
+      <c r="AA54">
+        <v>139.24600000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>203.58099999999999</v>
+      </c>
+      <c r="D55">
+        <v>831.59900000000005</v>
+      </c>
+      <c r="E55">
+        <v>557.66099999999994</v>
+      </c>
+      <c r="F55">
+        <v>488.77300000000002</v>
+      </c>
+      <c r="G55">
+        <v>4542.3289999999997</v>
+      </c>
+      <c r="H55">
+        <v>5486.8509999999997</v>
+      </c>
+      <c r="I55">
+        <v>120.771</v>
+      </c>
+      <c r="J55">
+        <v>747.78300000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>887.64700000000005</v>
+      </c>
+      <c r="O55">
+        <v>1846.923</v>
+      </c>
+      <c r="P55">
+        <v>747.78300000000002</v>
+      </c>
+      <c r="Q55">
+        <v>-17.158999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3639.9279999999999</v>
+      </c>
+      <c r="U55">
+        <v>776.22299999999996</v>
+      </c>
+      <c r="V55">
+        <v>237.727</v>
+      </c>
+      <c r="W55">
+        <v>-74.805000000000007</v>
+      </c>
+      <c r="X55">
+        <v>-123.041</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-96.376999999999995</v>
+      </c>
+      <c r="AA55">
+        <v>203.58099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>128.73099999999999</v>
+      </c>
+      <c r="D56">
+        <v>734.34299999999996</v>
+      </c>
+      <c r="E56">
+        <v>492.863</v>
+      </c>
+      <c r="F56">
+        <v>407.678</v>
+      </c>
+      <c r="G56">
+        <v>4586.0950000000003</v>
+      </c>
+      <c r="H56">
+        <v>5535.8459999999995</v>
+      </c>
+      <c r="I56">
+        <v>103.422</v>
+      </c>
+      <c r="J56">
+        <v>745.101</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>895.61099999999999</v>
+      </c>
+      <c r="O56">
+        <v>1866.5</v>
+      </c>
+      <c r="P56">
+        <v>745.101</v>
+      </c>
+      <c r="Q56">
+        <v>-145.36199999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>6060</v>
+      </c>
+      <c r="T56">
+        <v>3669.346</v>
+      </c>
+      <c r="U56">
+        <v>630.86099999999999</v>
+      </c>
+      <c r="V56">
+        <v>248.64</v>
+      </c>
+      <c r="W56">
+        <v>-74.465999999999994</v>
+      </c>
+      <c r="X56">
+        <v>-114.527</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-273.23099999999999</v>
+      </c>
+      <c r="AA56">
+        <v>128.73099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>72.233000000000004</v>
+      </c>
+      <c r="D57">
+        <v>642.90099999999995</v>
+      </c>
+      <c r="E57">
+        <v>444.048</v>
+      </c>
+      <c r="F57">
+        <v>354.43400000000003</v>
+      </c>
+      <c r="G57">
+        <v>4368.5370000000003</v>
+      </c>
+      <c r="H57">
+        <v>5301.5720000000001</v>
+      </c>
+      <c r="I57">
+        <v>108.28700000000001</v>
+      </c>
+      <c r="J57">
+        <v>748.05399999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>804.83699999999999</v>
+      </c>
+      <c r="O57">
+        <v>1771.8520000000001</v>
+      </c>
+      <c r="P57">
+        <v>748.05399999999997</v>
+      </c>
+      <c r="Q57">
+        <v>38.822000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3529.72</v>
+      </c>
+      <c r="U57">
+        <v>669.68299999999999</v>
+      </c>
+      <c r="V57">
+        <v>34.926000000000002</v>
+      </c>
+      <c r="W57">
+        <v>-82.412999999999997</v>
+      </c>
+      <c r="X57">
+        <v>-215.52</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>242.57400000000001</v>
+      </c>
+      <c r="AA57">
+        <v>72.233000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>20.268000000000001</v>
+      </c>
+      <c r="D58">
+        <v>676.35699999999997</v>
+      </c>
+      <c r="E58">
+        <v>632.08900000000006</v>
+      </c>
+      <c r="F58">
+        <v>393.14400000000001</v>
+      </c>
+      <c r="G58">
+        <v>4046.248</v>
+      </c>
+      <c r="H58">
+        <v>4987.366</v>
+      </c>
+      <c r="I58">
+        <v>108.307</v>
+      </c>
+      <c r="J58">
+        <v>3208.5709999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>942.34</v>
+      </c>
+      <c r="O58">
+        <v>4385.2269999999999</v>
+      </c>
+      <c r="P58">
+        <v>3246.0709999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-84.817999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>602.13900000000001</v>
+      </c>
+      <c r="U58">
+        <v>584.86500000000001</v>
+      </c>
+      <c r="V58">
+        <v>11.084</v>
+      </c>
+      <c r="W58">
+        <v>-36.738999999999997</v>
+      </c>
+      <c r="X58">
+        <v>-566.06200000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>487.74200000000002</v>
+      </c>
+      <c r="AA58">
+        <v>20.268000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>131.63800000000001</v>
+      </c>
+      <c r="D59">
+        <v>738.45899999999995</v>
+      </c>
+      <c r="E59">
+        <v>631.60799999999995</v>
+      </c>
+      <c r="F59">
+        <v>418.17700000000002</v>
+      </c>
+      <c r="G59">
+        <v>3967.1109999999999</v>
+      </c>
+      <c r="H59">
+        <v>4902.22</v>
+      </c>
+      <c r="I59">
+        <v>103.18899999999999</v>
+      </c>
+      <c r="J59">
+        <v>3199.299</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>976.61500000000001</v>
+      </c>
+      <c r="O59">
+        <v>4408.2790000000005</v>
+      </c>
+      <c r="P59">
+        <v>3236.799</v>
+      </c>
+      <c r="Q59">
+        <v>37.027000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>493.94099999999997</v>
+      </c>
+      <c r="U59">
+        <v>621.89200000000005</v>
+      </c>
+      <c r="V59">
+        <v>242.417</v>
+      </c>
+      <c r="W59">
+        <v>-82.25</v>
+      </c>
+      <c r="X59">
+        <v>-261.71199999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>65.009</v>
+      </c>
+      <c r="AA59">
+        <v>131.63800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>142.01900000000001</v>
+      </c>
+      <c r="D60">
+        <v>756.33199999999999</v>
+      </c>
+      <c r="E60">
+        <v>585.49400000000003</v>
+      </c>
+      <c r="F60">
+        <v>441.065</v>
+      </c>
+      <c r="G60">
+        <v>3904.576</v>
+      </c>
+      <c r="H60">
+        <v>4826.0119999999997</v>
+      </c>
+      <c r="I60">
+        <v>103.342</v>
+      </c>
+      <c r="J60">
+        <v>3173.4349999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1001.763</v>
+      </c>
+      <c r="O60">
+        <v>4404.5730000000003</v>
+      </c>
+      <c r="P60">
+        <v>3190.4160000000002</v>
+      </c>
+      <c r="Q60">
+        <v>216.13300000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>5880</v>
+      </c>
+      <c r="T60">
+        <v>421.43900000000002</v>
+      </c>
+      <c r="U60">
+        <v>838.02499999999998</v>
+      </c>
+      <c r="V60">
+        <v>317.47899999999998</v>
+      </c>
+      <c r="W60">
+        <v>-77.852999999999994</v>
+      </c>
+      <c r="X60">
+        <v>-259.678</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>165.62799999999999</v>
+      </c>
+      <c r="AA60">
+        <v>142.01900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>104.89700000000001</v>
+      </c>
+      <c r="D61">
+        <v>642.64400000000001</v>
+      </c>
+      <c r="E61">
+        <v>460.81299999999999</v>
+      </c>
+      <c r="F61">
+        <v>375.2</v>
+      </c>
+      <c r="G61">
+        <v>3675.4180000000001</v>
+      </c>
+      <c r="H61">
+        <v>4571.3230000000003</v>
+      </c>
+      <c r="I61">
+        <v>107.363</v>
+      </c>
+      <c r="J61">
+        <v>3151.0459999999998</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-40</v>
+      </c>
+      <c r="N61">
+        <v>915.24099999999999</v>
+      </c>
+      <c r="O61">
+        <v>4276.8819999999996</v>
+      </c>
+      <c r="P61">
+        <v>3151.0459999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-74.328000000000003</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>294.44099999999997</v>
+      </c>
+      <c r="U61">
+        <v>763.697</v>
+      </c>
+      <c r="V61">
+        <v>193.78200000000001</v>
+      </c>
+      <c r="W61">
+        <v>-81.674000000000007</v>
+      </c>
+      <c r="X61">
+        <v>-295.63299999999998</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>41.968000000000004</v>
+      </c>
+      <c r="AA61">
+        <v>104.89700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>152.20699999999999</v>
+      </c>
+      <c r="D62">
+        <v>710.245</v>
+      </c>
+      <c r="E62">
+        <v>427.11500000000001</v>
+      </c>
+      <c r="F62">
+        <v>429.76499999999999</v>
+      </c>
+      <c r="G62">
+        <v>3684.7049999999999</v>
+      </c>
+      <c r="H62">
+        <v>4572.5159999999996</v>
+      </c>
+      <c r="I62">
+        <v>122.31399999999999</v>
+      </c>
+      <c r="J62">
+        <v>3131.6759999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>858.33</v>
+      </c>
+      <c r="O62">
+        <v>4206.8909999999996</v>
+      </c>
+      <c r="P62">
+        <v>3131.6759999999999</v>
+      </c>
+      <c r="Q62">
+        <v>122.89400000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>365.625</v>
+      </c>
+      <c r="U62">
+        <v>886.59100000000001</v>
+      </c>
+      <c r="V62">
+        <v>100.324</v>
+      </c>
+      <c r="W62">
+        <v>-80.88</v>
+      </c>
+      <c r="X62">
+        <v>-117.70399999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>144.59299999999999</v>
+      </c>
+      <c r="AA62">
+        <v>152.20699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>175.77699999999999</v>
+      </c>
+      <c r="D63">
+        <v>712.43299999999999</v>
+      </c>
+      <c r="E63">
+        <v>624.81799999999998</v>
+      </c>
+      <c r="F63">
+        <v>437.834</v>
+      </c>
+      <c r="G63">
+        <v>3906.473</v>
+      </c>
+      <c r="H63">
+        <v>4782.1019999999999</v>
+      </c>
+      <c r="I63">
+        <v>126.322</v>
+      </c>
+      <c r="J63">
+        <v>3097.306</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>997.69200000000001</v>
+      </c>
+      <c r="O63">
+        <v>4305.53</v>
+      </c>
+      <c r="P63">
+        <v>3097.306</v>
+      </c>
+      <c r="Q63">
+        <v>39.383000000000003</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>476.572</v>
+      </c>
+      <c r="U63">
+        <v>925.97400000000005</v>
+      </c>
+      <c r="V63">
+        <v>111.497</v>
+      </c>
+      <c r="W63">
+        <v>-80.909000000000006</v>
+      </c>
+      <c r="X63">
+        <v>-118.17400000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>44.095999999999997</v>
+      </c>
+      <c r="AA63">
+        <v>175.77699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>271.541</v>
+      </c>
+      <c r="D64">
+        <v>919.17100000000005</v>
+      </c>
+      <c r="E64">
+        <v>613.23299999999995</v>
+      </c>
+      <c r="F64">
+        <v>581.803</v>
+      </c>
+      <c r="G64">
+        <v>3868.0320000000002</v>
+      </c>
+      <c r="H64">
+        <v>4962.4319999999998</v>
+      </c>
+      <c r="I64">
+        <v>106.517</v>
+      </c>
+      <c r="J64">
+        <v>3057.9360000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1002.423</v>
+      </c>
+      <c r="O64">
+        <v>4273.3180000000002</v>
+      </c>
+      <c r="P64">
+        <v>3057.9360000000001</v>
+      </c>
+      <c r="Q64">
+        <v>182.51400000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>5580</v>
+      </c>
+      <c r="T64">
+        <v>689.11400000000003</v>
+      </c>
+      <c r="U64">
+        <v>1108.4880000000001</v>
+      </c>
+      <c r="V64">
+        <v>354.09300000000002</v>
+      </c>
+      <c r="W64">
+        <v>-81.02</v>
+      </c>
+      <c r="X64">
+        <v>-105.191</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-66.114000000000004</v>
+      </c>
+      <c r="AA64">
+        <v>271.541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>178.101</v>
+      </c>
+      <c r="D65">
+        <v>750.673</v>
+      </c>
+      <c r="E65">
+        <v>654.69899999999996</v>
+      </c>
+      <c r="F65">
+        <v>472.83699999999999</v>
+      </c>
+      <c r="G65">
+        <v>3929.1619999999998</v>
+      </c>
+      <c r="H65">
+        <v>4996.098</v>
+      </c>
+      <c r="I65">
+        <v>105.066</v>
+      </c>
+      <c r="J65">
+        <v>3018.567</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-40</v>
+      </c>
+      <c r="N65">
+        <v>974.74099999999999</v>
+      </c>
+      <c r="O65">
+        <v>4214.5889999999999</v>
+      </c>
+      <c r="P65">
+        <v>3018.567</v>
+      </c>
+      <c r="Q65">
+        <v>-142.16300000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>781.50900000000001</v>
+      </c>
+      <c r="U65">
+        <v>966.32500000000005</v>
+      </c>
+      <c r="V65">
+        <v>169.77699999999999</v>
+      </c>
+      <c r="W65">
+        <v>-81.613</v>
+      </c>
+      <c r="X65">
+        <v>-146.68899999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-150.77600000000001</v>
+      </c>
+      <c r="AA65">
+        <v>178.101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>238.251</v>
+      </c>
+      <c r="D66">
+        <v>876.88499999999999</v>
+      </c>
+      <c r="E66">
+        <v>663.85199999999998</v>
+      </c>
+      <c r="F66">
+        <v>558.37800000000004</v>
+      </c>
+      <c r="G66">
+        <v>4031.6390000000001</v>
+      </c>
+      <c r="H66">
+        <v>5094.4560000000001</v>
+      </c>
+      <c r="I66">
+        <v>116.163</v>
+      </c>
+      <c r="J66">
+        <v>2729.239</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1187.7360000000001</v>
+      </c>
+      <c r="O66">
+        <v>4129.3599999999997</v>
+      </c>
+      <c r="P66">
+        <v>2979.1970000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-29.292000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>965.096</v>
+      </c>
+      <c r="U66">
+        <v>937.03300000000002</v>
+      </c>
+      <c r="V66">
+        <v>222.41300000000001</v>
+      </c>
+      <c r="W66">
+        <v>-84.528999999999996</v>
+      </c>
+      <c r="X66">
+        <v>-100.914</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-136.637</v>
+      </c>
+      <c r="AA66">
+        <v>238.251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>253.56200000000001</v>
+      </c>
+      <c r="D67">
+        <v>913.80899999999997</v>
+      </c>
+      <c r="E67">
+        <v>734.71699999999998</v>
+      </c>
+      <c r="F67">
+        <v>570.53499999999997</v>
+      </c>
+      <c r="G67">
+        <v>4253.33</v>
+      </c>
+      <c r="H67">
+        <v>5324.4449999999997</v>
+      </c>
+      <c r="I67">
+        <v>139.452</v>
+      </c>
+      <c r="J67">
+        <v>2704.8560000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1249.1859999999999</v>
+      </c>
+      <c r="O67">
+        <v>4177.1329999999998</v>
+      </c>
+      <c r="P67">
+        <v>2954.8270000000002</v>
+      </c>
+      <c r="Q67">
+        <v>18.774000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1147.3119999999999</v>
+      </c>
+      <c r="U67">
+        <v>955.80700000000002</v>
+      </c>
+      <c r="V67">
+        <v>224.83799999999999</v>
+      </c>
+      <c r="W67">
+        <v>-84.614000000000004</v>
+      </c>
+      <c r="X67">
+        <v>-112.22799999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-91.403000000000006</v>
+      </c>
+      <c r="AA67">
+        <v>253.56200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>256.16199999999998</v>
+      </c>
+      <c r="D68">
+        <v>938.64700000000005</v>
+      </c>
+      <c r="E68">
+        <v>571.11699999999996</v>
+      </c>
+      <c r="F68">
+        <v>590.71699999999998</v>
+      </c>
+      <c r="G68">
+        <v>4392.0659999999998</v>
+      </c>
+      <c r="H68">
+        <v>5532.1729999999998</v>
+      </c>
+      <c r="I68">
+        <v>147.38</v>
+      </c>
+      <c r="J68">
+        <v>2680.4740000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1293.162</v>
+      </c>
+      <c r="O68">
+        <v>4205.7560000000003</v>
+      </c>
+      <c r="P68">
+        <v>2930.4569999999999</v>
+      </c>
+      <c r="Q68">
+        <v>197.244</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>5990</v>
+      </c>
+      <c r="T68">
+        <v>1326.4169999999999</v>
+      </c>
+      <c r="U68">
+        <v>1153.0509999999999</v>
+      </c>
+      <c r="V68">
+        <v>462.637</v>
+      </c>
+      <c r="W68">
+        <v>-84.637</v>
+      </c>
+      <c r="X68">
+        <v>-112.974</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-117.431</v>
+      </c>
+      <c r="AA68">
+        <v>256.16199999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>280.93599999999998</v>
+      </c>
+      <c r="D69">
+        <v>969.58100000000002</v>
+      </c>
+      <c r="E69">
+        <v>666.73800000000006</v>
+      </c>
+      <c r="F69">
+        <v>616.46400000000006</v>
+      </c>
+      <c r="G69">
+        <v>4559.4960000000001</v>
+      </c>
+      <c r="H69">
+        <v>5690.3980000000001</v>
+      </c>
+      <c r="I69">
+        <v>138.65700000000001</v>
+      </c>
+      <c r="J69">
+        <v>2524.8420000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-156.25</v>
+      </c>
+      <c r="N69">
+        <v>1466.04</v>
+      </c>
+      <c r="O69">
+        <v>4226.442</v>
+      </c>
+      <c r="P69">
+        <v>2774.8380000000002</v>
+      </c>
+      <c r="Q69">
+        <v>167.64599999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1463.9559999999999</v>
+      </c>
+      <c r="U69">
+        <v>1320.6969999999999</v>
+      </c>
+      <c r="V69">
+        <v>373.62900000000002</v>
+      </c>
+      <c r="W69">
+        <v>-94.126999999999995</v>
+      </c>
+      <c r="X69">
+        <v>-320.13200000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>127.01600000000001</v>
+      </c>
+      <c r="AA69">
+        <v>280.93599999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-134.31899999999999</v>
+      </c>
+      <c r="D70">
+        <v>975.822</v>
+      </c>
+      <c r="E70">
+        <v>740.90300000000002</v>
+      </c>
+      <c r="F70">
+        <v>628.82000000000005</v>
+      </c>
+      <c r="G70">
+        <v>4353.9930000000004</v>
+      </c>
+      <c r="H70">
+        <v>5407.268</v>
+      </c>
+      <c r="I70">
+        <v>149.84399999999999</v>
+      </c>
+      <c r="J70">
+        <v>2486.4259999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1166.548</v>
+      </c>
+      <c r="O70">
+        <v>4181.643</v>
+      </c>
+      <c r="P70">
+        <v>2486.4259999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-247.303</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1225.625</v>
+      </c>
+      <c r="U70">
+        <v>1073.394</v>
+      </c>
+      <c r="V70">
+        <v>129.37100000000001</v>
+      </c>
+      <c r="W70">
+        <v>-92.575000000000003</v>
+      </c>
+      <c r="X70">
+        <v>-406.29700000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>41.956000000000003</v>
+      </c>
+      <c r="AA70">
+        <v>-134.31899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>306.88099999999997</v>
+      </c>
+      <c r="D71">
+        <v>1021.294</v>
+      </c>
+      <c r="E71">
+        <v>660.45500000000004</v>
+      </c>
+      <c r="F71">
+        <v>652.93799999999999</v>
+      </c>
+      <c r="G71">
+        <v>4540.5140000000001</v>
+      </c>
+      <c r="H71">
+        <v>5598.1840000000002</v>
+      </c>
+      <c r="I71">
+        <v>169.459</v>
+      </c>
+      <c r="J71">
+        <v>2461.9140000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1200.4349999999999</v>
+      </c>
+      <c r="O71">
+        <v>4228.0410000000002</v>
+      </c>
+      <c r="P71">
+        <v>2461.9140000000002</v>
+      </c>
+      <c r="Q71">
+        <v>182.28800000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1370.143</v>
+      </c>
+      <c r="U71">
+        <v>1255.682</v>
+      </c>
+      <c r="V71">
+        <v>352.60700000000003</v>
+      </c>
+      <c r="W71">
+        <v>-92.028000000000006</v>
+      </c>
+      <c r="X71">
+        <v>-202.28800000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>43.576999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>306.88099999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>348.767</v>
+      </c>
+      <c r="D72">
+        <v>1070.0039999999999</v>
+      </c>
+      <c r="E72">
+        <v>651.678</v>
+      </c>
+      <c r="F72">
+        <v>692.43799999999999</v>
+      </c>
+      <c r="G72">
+        <v>4549</v>
+      </c>
+      <c r="H72">
+        <v>5638.6189999999997</v>
+      </c>
+      <c r="I72">
+        <v>169.35400000000001</v>
+      </c>
+      <c r="J72">
+        <v>2237.402</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1214.27</v>
+      </c>
+      <c r="O72">
+        <v>4018.1080000000002</v>
+      </c>
+      <c r="P72">
+        <v>2237.402</v>
+      </c>
+      <c r="Q72">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>6550</v>
+      </c>
+      <c r="T72">
+        <v>1620.511</v>
+      </c>
+      <c r="U72">
+        <v>1404.3820000000001</v>
+      </c>
+      <c r="V72">
+        <v>373.51299999999998</v>
+      </c>
+      <c r="W72">
+        <v>-116.935</v>
+      </c>
+      <c r="X72">
+        <v>-341.38600000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>159.44900000000001</v>
+      </c>
+      <c r="AA72">
+        <v>348.767</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>395.94400000000002</v>
+      </c>
+      <c r="D73">
+        <v>1093.26</v>
+      </c>
+      <c r="E73">
+        <v>617.58299999999997</v>
+      </c>
+      <c r="F73">
+        <v>711.87300000000005</v>
+      </c>
+      <c r="G73">
+        <v>4521.0439999999999</v>
+      </c>
+      <c r="H73">
+        <v>5645.1090000000004</v>
+      </c>
+      <c r="I73">
+        <v>154.93</v>
+      </c>
+      <c r="J73">
+        <v>2237.89</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1310.93</v>
+      </c>
+      <c r="O73">
+        <v>4077.74</v>
+      </c>
+      <c r="P73">
+        <v>2237.89</v>
+      </c>
+      <c r="Q73">
+        <v>245.13200000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1567.3689999999999</v>
+      </c>
+      <c r="U73">
+        <v>1649.5139999999999</v>
+      </c>
+      <c r="V73">
+        <v>381.40499999999997</v>
+      </c>
+      <c r="W73">
+        <v>-119.95699999999999</v>
+      </c>
+      <c r="X73">
+        <v>-449.69200000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>345.995</v>
+      </c>
+      <c r="AA73">
+        <v>395.94400000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>369.1</v>
+      </c>
+      <c r="D74">
+        <v>1119.8979999999999</v>
+      </c>
+      <c r="E74">
+        <v>681.39599999999996</v>
+      </c>
+      <c r="F74">
+        <v>711.63800000000003</v>
+      </c>
+      <c r="G74">
+        <v>4485.5140000000001</v>
+      </c>
+      <c r="H74">
+        <v>5605.2870000000003</v>
+      </c>
+      <c r="I74">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="J74">
+        <v>1988.3820000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1482.538</v>
+      </c>
+      <c r="O74">
+        <v>4007.665</v>
+      </c>
+      <c r="P74">
+        <v>2238.3780000000002</v>
+      </c>
+      <c r="Q74">
+        <v>144.46799999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1597.6220000000001</v>
+      </c>
+      <c r="U74">
+        <v>1793.982</v>
+      </c>
+      <c r="V74">
+        <v>282.17200000000003</v>
+      </c>
+      <c r="W74">
+        <v>-114.462</v>
+      </c>
+      <c r="X74">
+        <v>-347.452</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>232.73599999999999</v>
+      </c>
+      <c r="AA74">
+        <v>369.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>192.72800000000001</v>
+      </c>
+      <c r="D75">
+        <v>1097.3109999999999</v>
+      </c>
+      <c r="E75">
+        <v>1049.539</v>
+      </c>
+      <c r="F75">
+        <v>656.50199999999995</v>
+      </c>
+      <c r="G75">
+        <v>4442.6279999999997</v>
+      </c>
+      <c r="H75">
+        <v>9187.6049999999996</v>
+      </c>
+      <c r="I75">
+        <v>206.24799999999999</v>
+      </c>
+      <c r="J75">
+        <v>3172.6489999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1700.856</v>
+      </c>
+      <c r="O75">
+        <v>6302.0169999999998</v>
+      </c>
+      <c r="P75">
+        <v>3422.6460000000002</v>
+      </c>
+      <c r="Q75">
+        <v>-701.81899999999996</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2885.5880000000002</v>
+      </c>
+      <c r="U75">
+        <v>1092.163</v>
+      </c>
+      <c r="V75">
+        <v>163.59399999999999</v>
+      </c>
+      <c r="W75">
+        <v>-113.581</v>
+      </c>
+      <c r="X75">
+        <v>869.28499999999997</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>100.58799999999999</v>
+      </c>
+      <c r="AA75">
+        <v>192.72800000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>217.845</v>
+      </c>
+      <c r="D76">
+        <v>1258.4349999999999</v>
+      </c>
+      <c r="E76">
+        <v>1084.1279999999999</v>
+      </c>
+      <c r="F76">
+        <v>617.58699999999999</v>
+      </c>
+      <c r="G76">
+        <v>4315.0749999999998</v>
+      </c>
+      <c r="H76">
+        <v>9008.5159999999996</v>
+      </c>
+      <c r="I76">
+        <v>202.416</v>
+      </c>
+      <c r="J76">
+        <v>3173.3829999999998</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1768.4860000000001</v>
+      </c>
+      <c r="O76">
+        <v>6330.8230000000003</v>
+      </c>
+      <c r="P76">
+        <v>3423.3820000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-76.168999999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>10020</v>
+      </c>
+      <c r="T76">
+        <v>2677.6930000000002</v>
+      </c>
+      <c r="U76">
+        <v>1015.994</v>
+      </c>
+      <c r="V76">
+        <v>325.46100000000001</v>
+      </c>
+      <c r="W76">
+        <v>-121.363</v>
+      </c>
+      <c r="X76">
+        <v>-432.14600000000002</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>84.236999999999995</v>
+      </c>
+      <c r="AA76">
+        <v>217.845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>346.52499999999998</v>
+      </c>
+      <c r="D77">
+        <v>1413.414</v>
+      </c>
+      <c r="E77">
+        <v>1165.2560000000001</v>
+      </c>
+      <c r="F77">
+        <v>809.173</v>
+      </c>
+      <c r="G77">
+        <v>4355.7489999999998</v>
+      </c>
+      <c r="H77">
+        <v>9229.3989999999994</v>
+      </c>
+      <c r="I77">
+        <v>221.38800000000001</v>
+      </c>
+      <c r="J77">
+        <v>3174.13</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1943.4469999999999</v>
+      </c>
+      <c r="O77">
+        <v>6549.78</v>
+      </c>
+      <c r="P77">
+        <v>3528.5369999999998</v>
+      </c>
+      <c r="Q77">
+        <v>-27.646000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2679.6190000000001</v>
+      </c>
+      <c r="U77">
+        <v>988.34799999999996</v>
+      </c>
+      <c r="V77">
+        <v>496.245</v>
+      </c>
+      <c r="W77">
+        <v>-121.636</v>
+      </c>
+      <c r="X77">
+        <v>-373.613</v>
+      </c>
+      <c r="Y77">
+        <v>75.552000000000007</v>
+      </c>
+      <c r="Z77">
+        <v>-38.481000000000002</v>
+      </c>
+      <c r="AA77">
+        <v>346.52499999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>380.55500000000001</v>
+      </c>
+      <c r="D78">
+        <v>1509.453</v>
+      </c>
+      <c r="E78">
+        <v>1276.8720000000001</v>
+      </c>
+      <c r="F78">
+        <v>875.83500000000004</v>
+      </c>
+      <c r="G78">
+        <v>4377.4430000000002</v>
+      </c>
+      <c r="H78">
+        <v>9250.7199999999993</v>
+      </c>
+      <c r="I78">
+        <v>256.64600000000002</v>
+      </c>
+      <c r="J78">
+        <v>3399.877</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1718.2429999999999</v>
+      </c>
+      <c r="O78">
+        <v>6562.75</v>
+      </c>
+      <c r="P78">
+        <v>3502.4340000000002</v>
+      </c>
+      <c r="Q78">
+        <v>-48.484000000000002</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>2687.97</v>
+      </c>
+      <c r="U78">
+        <v>939.86400000000003</v>
+      </c>
+      <c r="V78">
+        <v>387.73099999999999</v>
+      </c>
+      <c r="W78">
+        <v>-134.696</v>
+      </c>
+      <c r="X78">
+        <v>-432.03</v>
+      </c>
+      <c r="Y78">
+        <v>72.62</v>
+      </c>
+      <c r="Z78">
+        <v>24.271000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>380.55500000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>78.451999999999998</v>
+      </c>
+      <c r="D79">
+        <v>1423.9639999999999</v>
+      </c>
+      <c r="E79">
+        <v>1210.645</v>
+      </c>
+      <c r="F79">
+        <v>833.80600000000004</v>
+      </c>
+      <c r="G79">
+        <v>4318.4650000000001</v>
+      </c>
+      <c r="H79">
+        <v>8845.9459999999999</v>
+      </c>
+      <c r="I79">
+        <v>243.23400000000001</v>
+      </c>
+      <c r="J79">
+        <v>3443.9369999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1653.2739999999999</v>
+      </c>
+      <c r="O79">
+        <v>6520.75</v>
+      </c>
+      <c r="P79">
+        <v>3539.9810000000002</v>
+      </c>
+      <c r="Q79">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2325.1959999999999</v>
+      </c>
+      <c r="U79">
+        <v>946.17499999999995</v>
+      </c>
+      <c r="V79">
+        <v>442.02800000000002</v>
+      </c>
+      <c r="W79">
+        <v>-133.327</v>
+      </c>
+      <c r="X79">
+        <v>-432.637</v>
+      </c>
+      <c r="Y79">
+        <v>67.524000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>46.68</v>
+      </c>
+      <c r="AA79">
+        <v>78.451999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>411.25299999999999</v>
+      </c>
+      <c r="D80">
+        <v>1459.5930000000001</v>
+      </c>
+      <c r="E80">
+        <v>1207.289</v>
+      </c>
+      <c r="F80">
+        <v>838.04899999999998</v>
+      </c>
+      <c r="G80">
+        <v>4723.5450000000001</v>
+      </c>
+      <c r="H80">
+        <v>9279.9599999999991</v>
+      </c>
+      <c r="I80">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="J80">
+        <v>3469.67</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1699.7860000000001</v>
+      </c>
+      <c r="O80">
+        <v>6598.95</v>
+      </c>
+      <c r="P80">
+        <v>3569.549</v>
+      </c>
+      <c r="Q80">
+        <v>288.23399999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>10600</v>
+      </c>
+      <c r="T80">
+        <v>2681.01</v>
+      </c>
+      <c r="U80">
+        <v>1234.4090000000001</v>
+      </c>
+      <c r="V80">
+        <v>452.846</v>
+      </c>
+      <c r="W80">
+        <v>-132.762</v>
+      </c>
+      <c r="X80">
+        <v>-61.354999999999997</v>
+      </c>
+      <c r="Y80">
+        <v>70.885000000000005</v>
+      </c>
+      <c r="Z80">
+        <v>-53.965000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>411.25299999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>420.56700000000001</v>
+      </c>
+      <c r="D81">
+        <v>1538.62</v>
+      </c>
+      <c r="E81">
+        <v>1126.634</v>
+      </c>
+      <c r="F81">
+        <v>918.05799999999999</v>
+      </c>
+      <c r="G81">
+        <v>4754.6989999999996</v>
+      </c>
+      <c r="H81">
+        <v>9320.0959999999995</v>
+      </c>
+      <c r="I81">
+        <v>254.458</v>
+      </c>
+      <c r="J81">
+        <v>3420.4029999999998</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-50</v>
+      </c>
+      <c r="N81">
+        <v>1748.828</v>
+      </c>
+      <c r="O81">
+        <v>6557.7510000000002</v>
+      </c>
+      <c r="P81">
+        <v>3519.252</v>
+      </c>
+      <c r="Q81">
+        <v>-18.588999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2762.3449999999998</v>
+      </c>
+      <c r="U81">
+        <v>1215.82</v>
+      </c>
+      <c r="V81">
+        <v>512.17100000000005</v>
+      </c>
+      <c r="W81">
+        <v>-141.16399999999999</v>
+      </c>
+      <c r="X81">
+        <v>-404.20600000000002</v>
+      </c>
+      <c r="Y81">
+        <v>69.430999999999997</v>
+      </c>
+      <c r="Z81">
+        <v>-82.123000000000005</v>
+      </c>
+      <c r="AA81">
+        <v>420.56700000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>457.25099999999998</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1650.87</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1313.5640000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>981.13699999999994</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5222.9539999999997</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9814.6440000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>262.49599999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3441.4650000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2020.1120000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6864.3379999999997</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3567.1280000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>215.64599999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>2950.306</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1431.4659999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>561.08100000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-139.584</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-261.37700000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>74.442999999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-39.171999999999997</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>457.25099999999998</v>
       </c>
     </row>
